--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7786092461160998</v>
+        <v>0.7786092461160958</v>
       </c>
       <c r="D2">
-        <v>0.8005297447209235</v>
+        <v>0.8005297447209198</v>
       </c>
       <c r="E2">
-        <v>0.8075959975489576</v>
+        <v>0.8075959975489538</v>
       </c>
       <c r="F2">
-        <v>0.7878234826688194</v>
+        <v>0.787823482668815</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8102697025239638</v>
+        <v>0.8102697025239599</v>
       </c>
       <c r="K2">
-        <v>0.8157039052800078</v>
+        <v>0.8157039052800041</v>
       </c>
       <c r="L2">
-        <v>0.8225963347453675</v>
+        <v>0.8225963347453639</v>
       </c>
       <c r="M2">
-        <v>0.8033208399267454</v>
+        <v>0.8033208399267412</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8316757013540931</v>
+        <v>0.8316757013540832</v>
       </c>
       <c r="D3">
-        <v>0.8493175929375876</v>
+        <v>0.8493175929375781</v>
       </c>
       <c r="E3">
-        <v>0.8546109915684817</v>
+        <v>0.854610991568473</v>
       </c>
       <c r="F3">
-        <v>0.8404387003672895</v>
+        <v>0.8404387003672797</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8581098499088464</v>
+        <v>0.858109849908837</v>
       </c>
       <c r="K3">
-        <v>0.8623265430254615</v>
+        <v>0.8623265430254525</v>
       </c>
       <c r="L3">
-        <v>0.8675178913084888</v>
+        <v>0.8675178913084802</v>
       </c>
       <c r="M3">
-        <v>0.8536226216800765</v>
+        <v>0.8536226216800671</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8576391021250488</v>
+        <v>0.8576391021250431</v>
       </c>
       <c r="D4">
-        <v>0.8732620694907072</v>
+        <v>0.8732620694907015</v>
       </c>
       <c r="E4">
-        <v>0.8777034435390758</v>
+        <v>0.8777034435390704</v>
       </c>
       <c r="F4">
-        <v>0.8662441816665224</v>
+        <v>0.8662441816665166</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.88154854650003</v>
+        <v>0.8815485465000243</v>
       </c>
       <c r="K4">
-        <v>0.8851762216753946</v>
+        <v>0.885176221675389</v>
       </c>
       <c r="L4">
-        <v>0.8895425428329826</v>
+        <v>0.8895425428329772</v>
       </c>
       <c r="M4">
-        <v>0.878278956612331</v>
+        <v>0.8782789566123252</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8673937305027665</v>
+        <v>0.8673937305027628</v>
       </c>
       <c r="D5">
-        <v>0.882268123662969</v>
+        <v>0.8822681236629656</v>
       </c>
       <c r="E5">
-        <v>0.8863911646387904</v>
+        <v>0.8863911646387871</v>
       </c>
       <c r="F5">
-        <v>0.875949468938072</v>
+        <v>0.8759494689380688</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8903570021552665</v>
+        <v>0.8903570021552631</v>
       </c>
       <c r="K5">
-        <v>0.893763939758052</v>
+        <v>0.8937639397580485</v>
       </c>
       <c r="L5">
-        <v>0.8978208542523097</v>
+        <v>0.8978208542523063</v>
       </c>
       <c r="M5">
-        <v>0.8875481789295524</v>
+        <v>0.8875481789295491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8689763314732701</v>
+        <v>0.8689763314732749</v>
       </c>
       <c r="D6">
-        <v>0.8837297317481622</v>
+        <v>0.8837297317481666</v>
       </c>
       <c r="E6">
-        <v>0.8878011992773435</v>
+        <v>0.8878011992773475</v>
       </c>
       <c r="F6">
-        <v>0.8775245687150413</v>
+        <v>0.8775245687150459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8917861486261602</v>
+        <v>0.8917861486261649</v>
       </c>
       <c r="K6">
-        <v>0.8951572896470663</v>
+        <v>0.8951572896470704</v>
       </c>
       <c r="L6">
-        <v>0.8991640193235523</v>
+        <v>0.8991640193235562</v>
       </c>
       <c r="M6">
-        <v>0.8890522754033158</v>
+        <v>0.8890522754033202</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8577733801317829</v>
+        <v>0.8577733801317778</v>
       </c>
       <c r="D7">
-        <v>0.8733860088782388</v>
+        <v>0.8733860088782339</v>
       </c>
       <c r="E7">
-        <v>0.8778229952168685</v>
+        <v>0.877822995216864</v>
       </c>
       <c r="F7">
-        <v>0.8663777439797359</v>
+        <v>0.8663777439797311</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.881669794540645</v>
+        <v>0.8816697945406404</v>
       </c>
       <c r="K7">
-        <v>0.8852944296980669</v>
+        <v>0.885294429698062</v>
       </c>
       <c r="L7">
-        <v>0.8896564903776368</v>
+        <v>0.8896564903776325</v>
       </c>
       <c r="M7">
-        <v>0.878406533913088</v>
+        <v>0.8784065339130834</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D8">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E8">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F8">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K8">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L8">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M8">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D9">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E9">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F9">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K9">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L9">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M9">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D10">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E10">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F10">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K10">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L10">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M10">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D11">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E11">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F11">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K11">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L11">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M11">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D12">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E12">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F12">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K12">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L12">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M12">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D13">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E13">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F13">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K13">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L13">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M13">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D14">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E14">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F14">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K14">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L14">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M14">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D15">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E15">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F15">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K15">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L15">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M15">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D16">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E16">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F16">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K16">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L16">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M16">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D17">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E17">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F17">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K17">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L17">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M17">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D18">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E18">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F18">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K18">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L18">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M18">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D19">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E19">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F19">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K19">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L19">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M19">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D20">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E20">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F20">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K20">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L20">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M20">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D21">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E21">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F21">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K21">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L21">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M21">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D22">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E22">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F22">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K22">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L22">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M22">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D23">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E23">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F23">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K23">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L23">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M23">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D24">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E24">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F24">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K24">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L24">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M24">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.799137779563765</v>
+        <v>0.7991377795637694</v>
       </c>
       <c r="D25">
-        <v>0.8193753443376058</v>
+        <v>0.8193753443376099</v>
       </c>
       <c r="E25">
-        <v>0.8257497301297053</v>
+        <v>0.8257497301297093</v>
       </c>
       <c r="F25">
-        <v>0.8081559395387041</v>
+        <v>0.8081559395387086</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8287620171407455</v>
+        <v>0.8287620171407497</v>
       </c>
       <c r="K25">
-        <v>0.8337223501554404</v>
+        <v>0.8337223501554444</v>
       </c>
       <c r="L25">
-        <v>0.8399535456852933</v>
+        <v>0.8399535456852973</v>
       </c>
       <c r="M25">
-        <v>0.8227623258553732</v>
+        <v>0.8227623258553777</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7786092461160958</v>
+        <v>0.7786092461160998</v>
       </c>
       <c r="D2">
-        <v>0.8005297447209198</v>
+        <v>0.8005297447209235</v>
       </c>
       <c r="E2">
-        <v>0.8075959975489538</v>
+        <v>0.8075959975489576</v>
       </c>
       <c r="F2">
-        <v>0.787823482668815</v>
+        <v>0.7878234826688194</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8102697025239599</v>
+        <v>0.8102697025239638</v>
       </c>
       <c r="K2">
-        <v>0.8157039052800041</v>
+        <v>0.8157039052800078</v>
       </c>
       <c r="L2">
-        <v>0.8225963347453639</v>
+        <v>0.8225963347453675</v>
       </c>
       <c r="M2">
-        <v>0.8033208399267412</v>
+        <v>0.8033208399267454</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8316757013540832</v>
+        <v>0.8316757013540931</v>
       </c>
       <c r="D3">
-        <v>0.8493175929375781</v>
+        <v>0.8493175929375876</v>
       </c>
       <c r="E3">
-        <v>0.854610991568473</v>
+        <v>0.8546109915684817</v>
       </c>
       <c r="F3">
-        <v>0.8404387003672797</v>
+        <v>0.8404387003672895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.858109849908837</v>
+        <v>0.8581098499088464</v>
       </c>
       <c r="K3">
-        <v>0.8623265430254525</v>
+        <v>0.8623265430254615</v>
       </c>
       <c r="L3">
-        <v>0.8675178913084802</v>
+        <v>0.8675178913084888</v>
       </c>
       <c r="M3">
-        <v>0.8536226216800671</v>
+        <v>0.8536226216800765</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8576391021250431</v>
+        <v>0.8576391021250488</v>
       </c>
       <c r="D4">
-        <v>0.8732620694907015</v>
+        <v>0.8732620694907072</v>
       </c>
       <c r="E4">
-        <v>0.8777034435390704</v>
+        <v>0.8777034435390758</v>
       </c>
       <c r="F4">
-        <v>0.8662441816665166</v>
+        <v>0.8662441816665224</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8815485465000243</v>
+        <v>0.88154854650003</v>
       </c>
       <c r="K4">
-        <v>0.885176221675389</v>
+        <v>0.8851762216753946</v>
       </c>
       <c r="L4">
-        <v>0.8895425428329772</v>
+        <v>0.8895425428329826</v>
       </c>
       <c r="M4">
-        <v>0.8782789566123252</v>
+        <v>0.878278956612331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8673937305027628</v>
+        <v>0.8673937305027665</v>
       </c>
       <c r="D5">
-        <v>0.8822681236629656</v>
+        <v>0.882268123662969</v>
       </c>
       <c r="E5">
-        <v>0.8863911646387871</v>
+        <v>0.8863911646387904</v>
       </c>
       <c r="F5">
-        <v>0.8759494689380688</v>
+        <v>0.875949468938072</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8903570021552631</v>
+        <v>0.8903570021552665</v>
       </c>
       <c r="K5">
-        <v>0.8937639397580485</v>
+        <v>0.893763939758052</v>
       </c>
       <c r="L5">
-        <v>0.8978208542523063</v>
+        <v>0.8978208542523097</v>
       </c>
       <c r="M5">
-        <v>0.8875481789295491</v>
+        <v>0.8875481789295524</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8689763314732749</v>
+        <v>0.8689763314732701</v>
       </c>
       <c r="D6">
-        <v>0.8837297317481666</v>
+        <v>0.8837297317481622</v>
       </c>
       <c r="E6">
-        <v>0.8878011992773475</v>
+        <v>0.8878011992773435</v>
       </c>
       <c r="F6">
-        <v>0.8775245687150459</v>
+        <v>0.8775245687150413</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8917861486261649</v>
+        <v>0.8917861486261602</v>
       </c>
       <c r="K6">
-        <v>0.8951572896470704</v>
+        <v>0.8951572896470663</v>
       </c>
       <c r="L6">
-        <v>0.8991640193235562</v>
+        <v>0.8991640193235523</v>
       </c>
       <c r="M6">
-        <v>0.8890522754033202</v>
+        <v>0.8890522754033158</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8577733801317778</v>
+        <v>0.8577733801317829</v>
       </c>
       <c r="D7">
-        <v>0.8733860088782339</v>
+        <v>0.8733860088782388</v>
       </c>
       <c r="E7">
-        <v>0.877822995216864</v>
+        <v>0.8778229952168685</v>
       </c>
       <c r="F7">
-        <v>0.8663777439797311</v>
+        <v>0.8663777439797359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8816697945406404</v>
+        <v>0.881669794540645</v>
       </c>
       <c r="K7">
-        <v>0.885294429698062</v>
+        <v>0.8852944296980669</v>
       </c>
       <c r="L7">
-        <v>0.8896564903776325</v>
+        <v>0.8896564903776368</v>
       </c>
       <c r="M7">
-        <v>0.8784065339130834</v>
+        <v>0.878406533913088</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D8">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E8">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F8">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K8">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L8">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M8">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D9">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E9">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F9">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K9">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L9">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M9">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D10">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E10">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F10">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K10">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L10">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M10">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D11">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E11">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F11">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K11">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L11">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M11">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D12">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E12">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F12">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K12">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L12">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M12">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D13">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E13">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F13">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K13">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L13">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M13">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D14">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E14">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F14">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K14">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L14">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M14">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D15">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E15">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F15">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K15">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L15">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M15">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D16">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E16">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F16">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K16">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L16">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M16">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D17">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E17">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F17">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K17">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L17">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M17">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D18">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E18">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F18">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K18">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L18">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M18">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D19">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E19">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F19">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K19">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L19">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M19">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D20">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E20">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F20">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K20">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L20">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M20">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D21">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E21">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F21">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K21">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L21">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M21">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D22">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E22">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F22">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K22">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L22">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M22">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D23">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E23">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F23">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K23">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L23">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M23">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D24">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E24">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F24">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K24">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L24">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M24">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7991377795637694</v>
+        <v>0.799137779563765</v>
       </c>
       <c r="D25">
-        <v>0.8193753443376099</v>
+        <v>0.8193753443376058</v>
       </c>
       <c r="E25">
-        <v>0.8257497301297093</v>
+        <v>0.8257497301297053</v>
       </c>
       <c r="F25">
-        <v>0.8081559395387086</v>
+        <v>0.8081559395387041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8287620171407497</v>
+        <v>0.8287620171407455</v>
       </c>
       <c r="K25">
-        <v>0.8337223501554444</v>
+        <v>0.8337223501554404</v>
       </c>
       <c r="L25">
-        <v>0.8399535456852973</v>
+        <v>0.8399535456852933</v>
       </c>
       <c r="M25">
-        <v>0.8227623258553777</v>
+        <v>0.8227623258553732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7786092461160998</v>
+        <v>0.7865733432241869</v>
       </c>
       <c r="D2">
-        <v>0.8005297447209235</v>
+        <v>0.8078432795524076</v>
       </c>
       <c r="E2">
-        <v>0.8075959975489576</v>
+        <v>0.8145457256917198</v>
       </c>
       <c r="F2">
-        <v>0.7878234826688194</v>
+        <v>0.7955443138773134</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8102697025239638</v>
+        <v>0.8177550601889291</v>
       </c>
       <c r="K2">
-        <v>0.8157039052800078</v>
+        <v>0.8228376078689941</v>
       </c>
       <c r="L2">
-        <v>0.8225963347453675</v>
+        <v>0.8293790498019513</v>
       </c>
       <c r="M2">
-        <v>0.8033208399267454</v>
+        <v>0.8108436217422436</v>
+      </c>
+      <c r="N2">
+        <v>0.8189163661722139</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8316757013540931</v>
+        <v>0.838109830028623</v>
       </c>
       <c r="D3">
-        <v>0.8493175929375876</v>
+        <v>0.8552533892556933</v>
       </c>
       <c r="E3">
-        <v>0.8546109915684817</v>
+        <v>0.8602364172254318</v>
       </c>
       <c r="F3">
-        <v>0.8404387003672895</v>
+        <v>0.8466532866645226</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8581098499088464</v>
+        <v>0.8642534739852548</v>
       </c>
       <c r="K3">
-        <v>0.8623265430254615</v>
+        <v>0.8681480167987016</v>
       </c>
       <c r="L3">
-        <v>0.8675178913084888</v>
+        <v>0.8730366633396176</v>
       </c>
       <c r="M3">
-        <v>0.8536226216800765</v>
+        <v>0.8597142349579467</v>
+      </c>
+      <c r="N3">
+        <v>0.8654808130495728</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8576391021250488</v>
+        <v>0.8636312254797586</v>
       </c>
       <c r="D4">
-        <v>0.8732620694907072</v>
+        <v>0.8787999994934137</v>
       </c>
       <c r="E4">
-        <v>0.8777034435390758</v>
+        <v>0.8829455809590941</v>
       </c>
       <c r="F4">
-        <v>0.8662441816665224</v>
+        <v>0.87202187988518</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.88154854650003</v>
+        <v>0.8873085453106605</v>
       </c>
       <c r="K4">
-        <v>0.8851762216753946</v>
+        <v>0.8906207190510591</v>
       </c>
       <c r="L4">
-        <v>0.8895425428329826</v>
+        <v>0.8946973460107199</v>
       </c>
       <c r="M4">
-        <v>0.878278956612331</v>
+        <v>0.8839571658864961</v>
+      </c>
+      <c r="N4">
+        <v>0.8885686252207143</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8673937305027665</v>
+        <v>0.8732513473084966</v>
       </c>
       <c r="D5">
-        <v>0.882268123662969</v>
+        <v>0.8876850486053164</v>
       </c>
       <c r="E5">
-        <v>0.8863911646387904</v>
+        <v>0.8915165947798843</v>
       </c>
       <c r="F5">
-        <v>0.875949468938072</v>
+        <v>0.8815939229375519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8903570021552665</v>
+        <v>0.8960010073698126</v>
       </c>
       <c r="K5">
-        <v>0.893763939758052</v>
+        <v>0.8990941487784314</v>
       </c>
       <c r="L5">
-        <v>0.8978208542523097</v>
+        <v>0.9028651724653729</v>
       </c>
       <c r="M5">
-        <v>0.8875481789295524</v>
+        <v>0.8931006275812565</v>
+      </c>
+      <c r="N5">
+        <v>0.8972734315730296</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8689763314732701</v>
+        <v>0.8748134858767036</v>
       </c>
       <c r="D6">
-        <v>0.8837297317481622</v>
+        <v>0.8891282528860033</v>
       </c>
       <c r="E6">
-        <v>0.8878011992773435</v>
+        <v>0.8929088723417697</v>
       </c>
       <c r="F6">
-        <v>0.8775245687150413</v>
+        <v>0.8831487367914482</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8917861486261602</v>
+        <v>0.8974125487218917</v>
       </c>
       <c r="K6">
-        <v>0.8951572896470663</v>
+        <v>0.9004701362549872</v>
       </c>
       <c r="L6">
-        <v>0.8991640193235523</v>
+        <v>0.9041915457187616</v>
       </c>
       <c r="M6">
-        <v>0.8890522754033158</v>
+        <v>0.89458559513263</v>
+      </c>
+      <c r="N6">
+        <v>0.8986869774757348</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8577733801317829</v>
+        <v>0.8637635489818104</v>
       </c>
       <c r="D7">
-        <v>0.8733860088782388</v>
+        <v>0.8789221802366617</v>
       </c>
       <c r="E7">
-        <v>0.8778229952168685</v>
+        <v>0.8830634369866189</v>
       </c>
       <c r="F7">
-        <v>0.8663777439797359</v>
+        <v>0.8721535072169672</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.881669794540645</v>
+        <v>0.8874281047866364</v>
       </c>
       <c r="K7">
-        <v>0.8852944296980669</v>
+        <v>0.8907372645577279</v>
       </c>
       <c r="L7">
-        <v>0.8896564903776368</v>
+        <v>0.8948096869181462</v>
       </c>
       <c r="M7">
-        <v>0.878406533913088</v>
+        <v>0.8840829155609946</v>
+      </c>
+      <c r="N7">
+        <v>0.8886883544848597</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D8">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E8">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F8">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K8">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L8">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M8">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N8">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D9">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E9">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F9">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K9">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L9">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M9">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N9">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D10">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E10">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F10">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K10">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L10">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M10">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N10">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D11">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E11">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F11">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K11">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L11">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M11">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N11">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D12">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E12">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F12">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K12">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L12">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M12">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N12">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D13">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E13">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F13">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K13">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L13">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M13">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N13">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D14">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E14">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F14">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K14">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L14">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M14">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N14">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D15">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E15">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F15">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K15">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L15">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M15">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N15">
+        <v>0.8367931458780783</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D16">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E16">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F16">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K16">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L16">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M16">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N16">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D17">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E17">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F17">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K17">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L17">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M17">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N17">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D18">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E18">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F18">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K18">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L18">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M18">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N18">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D19">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E19">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F19">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K19">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L19">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M19">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N19">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D20">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E20">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F20">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K20">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L20">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M20">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N20">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D21">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E21">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F21">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K21">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L21">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M21">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N21">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D22">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E22">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F22">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K22">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L22">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M22">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N22">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D23">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E23">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F23">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K23">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L23">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M23">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N23">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D24">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E24">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F24">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K24">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L24">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M24">
-        <v>0.8227623258553732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N24">
+        <v>0.8367931458780783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.799137779563765</v>
+        <v>0.8063730182610063</v>
       </c>
       <c r="D25">
-        <v>0.8193753443376058</v>
+        <v>0.8260325443252784</v>
       </c>
       <c r="E25">
-        <v>0.8257497301297053</v>
+        <v>0.8320689826189057</v>
       </c>
       <c r="F25">
-        <v>0.8081559395387041</v>
+        <v>0.8151600066337213</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8287620171407455</v>
+        <v>0.8356064888185519</v>
       </c>
       <c r="K25">
-        <v>0.8337223501554404</v>
+        <v>0.8402300750646711</v>
       </c>
       <c r="L25">
-        <v>0.8399535456852933</v>
+        <v>0.8461337220334723</v>
       </c>
       <c r="M25">
-        <v>0.8227623258553732</v>
+        <v>0.8296033474986082</v>
+      </c>
+      <c r="N25">
+        <v>0.8367931458780783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.7865733432241869</v>
+        <v>0.8678239733933263</v>
       </c>
       <c r="D2">
-        <v>0.8078432795524076</v>
+        <v>0.8811420911252057</v>
       </c>
       <c r="E2">
-        <v>0.8145457256917198</v>
+        <v>0.8869829055843139</v>
       </c>
       <c r="F2">
-        <v>0.7955443138773134</v>
+        <v>0.8802248464551128</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.027912896765746</v>
+      </c>
       <c r="J2">
-        <v>0.8177550601889291</v>
+        <v>0.8948312873320692</v>
       </c>
       <c r="K2">
-        <v>0.8228376078689941</v>
+        <v>0.8945497735671305</v>
       </c>
       <c r="L2">
-        <v>0.8293790498019513</v>
+        <v>0.9002788957684873</v>
       </c>
       <c r="M2">
-        <v>0.8108436217422436</v>
+        <v>0.8936502455776939</v>
       </c>
       <c r="N2">
-        <v>0.8189163661722139</v>
+        <v>0.896102050398664</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.838109830028623</v>
+        <v>0.9089640962712315</v>
       </c>
       <c r="D3">
-        <v>0.8552533892556933</v>
+        <v>0.9216000424713165</v>
       </c>
       <c r="E3">
-        <v>0.8602364172254318</v>
+        <v>0.922958165015801</v>
       </c>
       <c r="F3">
-        <v>0.8466532866645226</v>
+        <v>0.9221385407827721</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.032374988551774</v>
+      </c>
       <c r="J3">
-        <v>0.8642534739852548</v>
+        <v>0.9322866928197184</v>
       </c>
       <c r="K3">
-        <v>0.8681480167987016</v>
+        <v>0.9333451292258303</v>
       </c>
       <c r="L3">
-        <v>0.8730366633396176</v>
+        <v>0.9346819290093961</v>
       </c>
       <c r="M3">
-        <v>0.8597142349579467</v>
+        <v>0.9338751634054353</v>
       </c>
       <c r="N3">
-        <v>0.8654808130495728</v>
+        <v>0.9336106468583008</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.8636312254797586</v>
+        <v>0.9309952553168558</v>
       </c>
       <c r="D4">
-        <v>0.8787999994934137</v>
+        <v>0.9432938950499001</v>
       </c>
       <c r="E4">
-        <v>0.8829455809590941</v>
+        <v>0.9422595511364762</v>
       </c>
       <c r="F4">
-        <v>0.87202187988518</v>
+        <v>0.9446146646196792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.034756126076632</v>
+      </c>
       <c r="J4">
-        <v>0.8873085453106605</v>
+        <v>0.9523454716890711</v>
       </c>
       <c r="K4">
-        <v>0.8906207190510591</v>
+        <v>0.9541285829661412</v>
       </c>
       <c r="L4">
-        <v>0.8946973460107199</v>
+        <v>0.9531087073577578</v>
       </c>
       <c r="M4">
-        <v>0.8839571658864961</v>
+        <v>0.9554309358590025</v>
       </c>
       <c r="N4">
-        <v>0.8885686252207143</v>
+        <v>0.953697911494422</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.8732513473084966</v>
+        <v>0.9395022173767312</v>
       </c>
       <c r="D5">
-        <v>0.8876850486053164</v>
+        <v>0.9516754177543003</v>
       </c>
       <c r="E5">
-        <v>0.8915165947798843</v>
+        <v>0.9497176472351476</v>
       </c>
       <c r="F5">
-        <v>0.8815939229375519</v>
+        <v>0.9532993283589934</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.035671673440919</v>
+      </c>
       <c r="J5">
-        <v>0.8960010073698126</v>
+        <v>0.9600893540017476</v>
       </c>
       <c r="K5">
-        <v>0.8990941487784314</v>
+        <v>0.962154039691353</v>
       </c>
       <c r="L5">
-        <v>0.9028651724653729</v>
+        <v>0.9602223998522936</v>
       </c>
       <c r="M5">
-        <v>0.8931006275812565</v>
+        <v>0.9637563778880313</v>
       </c>
       <c r="N5">
-        <v>0.8972734315730296</v>
+        <v>0.9614527910082185</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.8748134858767036</v>
+        <v>0.9408927335104317</v>
       </c>
       <c r="D6">
-        <v>0.8891282528860033</v>
+        <v>0.9530456756431345</v>
       </c>
       <c r="E6">
-        <v>0.8929088723417697</v>
+        <v>0.9509369584549588</v>
       </c>
       <c r="F6">
-        <v>0.8831487367914482</v>
+        <v>0.9547192082249544</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.03582105633261</v>
+      </c>
       <c r="J6">
-        <v>0.8974125487218917</v>
+        <v>0.9613550207455746</v>
       </c>
       <c r="K6">
-        <v>0.9004701362549872</v>
+        <v>0.9634658355362518</v>
       </c>
       <c r="L6">
-        <v>0.9041915457187616</v>
+        <v>0.9613850450658341</v>
       </c>
       <c r="M6">
-        <v>0.89458559513263</v>
+        <v>0.9651173148316042</v>
       </c>
       <c r="N6">
-        <v>0.8986869774757348</v>
+        <v>0.9627202551439955</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.8637635489818104</v>
+        <v>0.9311115845965188</v>
       </c>
       <c r="D7">
-        <v>0.8789221802366617</v>
+        <v>0.943408491388671</v>
       </c>
       <c r="E7">
-        <v>0.8830634369866189</v>
+        <v>0.9423615198751236</v>
       </c>
       <c r="F7">
-        <v>0.8721535072169672</v>
+        <v>0.9447334015276103</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.034768663468665</v>
+      </c>
       <c r="J7">
-        <v>0.8874281047866364</v>
+        <v>0.9524513737084066</v>
       </c>
       <c r="K7">
-        <v>0.8907372645577279</v>
+        <v>0.9542383282757466</v>
       </c>
       <c r="L7">
-        <v>0.8948096869181462</v>
+        <v>0.9532059924495655</v>
       </c>
       <c r="M7">
-        <v>0.8840829155609946</v>
+        <v>0.9555447760756444</v>
       </c>
       <c r="N7">
-        <v>0.8886883544848597</v>
+        <v>0.9538039639067721</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D8">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E8">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F8">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J8">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K8">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L8">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M8">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N8">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D9">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E9">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F9">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J9">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K9">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L9">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M9">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N9">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D10">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E10">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F10">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J10">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K10">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L10">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M10">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N10">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D11">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E11">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F11">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J11">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K11">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L11">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M11">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N11">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D12">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E12">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F12">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J12">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K12">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L12">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M12">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N12">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D13">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E13">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F13">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J13">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K13">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L13">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M13">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N13">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D14">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E14">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F14">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J14">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K14">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L14">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M14">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N14">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D15">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E15">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F15">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J15">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K15">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L15">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M15">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N15">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D16">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E16">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F16">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J16">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K16">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L16">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M16">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N16">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D17">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E17">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F17">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J17">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K17">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L17">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M17">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N17">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D18">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E18">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F18">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J18">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K18">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L18">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M18">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N18">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D19">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E19">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F19">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J19">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K19">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L19">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M19">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N19">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D20">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E20">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F20">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J20">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K20">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L20">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M20">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N20">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D21">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E21">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F21">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J21">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K21">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L21">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M21">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N21">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D22">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E22">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F22">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J22">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K22">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L22">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M22">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N22">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D23">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E23">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F23">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J23">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K23">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L23">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M23">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N23">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D24">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E24">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F24">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J24">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K24">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L24">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M24">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N24">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8063730182610063</v>
+        <v>0.882973634043997</v>
       </c>
       <c r="D25">
-        <v>0.8260325443252784</v>
+        <v>0.8960321590867837</v>
       </c>
       <c r="E25">
-        <v>0.8320689826189057</v>
+        <v>0.9002188250488495</v>
       </c>
       <c r="F25">
-        <v>0.8151600066337213</v>
+        <v>0.8956507846576465</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.029556291872451</v>
+      </c>
       <c r="J25">
-        <v>0.8356064888185519</v>
+        <v>0.9086222291115902</v>
       </c>
       <c r="K25">
-        <v>0.8402300750646711</v>
+        <v>0.908832536217319</v>
       </c>
       <c r="L25">
-        <v>0.8461337220334723</v>
+        <v>0.9129445702985375</v>
       </c>
       <c r="M25">
-        <v>0.8296033474986082</v>
+        <v>0.9084580052520786</v>
       </c>
       <c r="N25">
-        <v>0.8367931458780783</v>
+        <v>0.9099125768973551</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -417,984 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>0.8678239733933263</v>
+        <v>0.9204505550534068</v>
       </c>
       <c r="D2">
-        <v>0.8811420911252057</v>
+        <v>0.9335661079182782</v>
       </c>
       <c r="E2">
-        <v>0.8869829055843139</v>
+        <v>0.9354497081613496</v>
       </c>
       <c r="F2">
-        <v>0.8802248464551128</v>
+        <v>0.9337380927167481</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.027912896765746</v>
-      </c>
       <c r="J2">
-        <v>0.8948312873320692</v>
+        <v>0.94530204539643</v>
       </c>
       <c r="K2">
-        <v>0.8945497735671305</v>
+        <v>0.9460357134635368</v>
       </c>
       <c r="L2">
-        <v>0.9002788957684873</v>
+        <v>0.947888126736144</v>
       </c>
       <c r="M2">
-        <v>0.8936502455776939</v>
+        <v>0.9462048439707239</v>
       </c>
       <c r="N2">
-        <v>0.896102050398664</v>
+        <v>0.9810989348345072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>0.9089640962712315</v>
+        <v>0.9369196253462242</v>
       </c>
       <c r="D3">
-        <v>0.9216000424713165</v>
+        <v>0.9495188695899114</v>
       </c>
       <c r="E3">
-        <v>0.922958165015801</v>
+        <v>0.9496103810823603</v>
       </c>
       <c r="F3">
-        <v>0.9221385407827721</v>
+        <v>0.9505793546024439</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.032374988551774</v>
-      </c>
       <c r="J3">
-        <v>0.9322866928197184</v>
+        <v>0.9592912387671997</v>
       </c>
       <c r="K3">
-        <v>0.9333451292258303</v>
+        <v>0.9608411855176018</v>
       </c>
       <c r="L3">
-        <v>0.9346819290093961</v>
+        <v>0.9609313631245052</v>
       </c>
       <c r="M3">
-        <v>0.9338751634054353</v>
+        <v>0.9618862327186352</v>
       </c>
       <c r="N3">
-        <v>0.9336106468583008</v>
+        <v>0.9863620480397719</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>0.9309952553168558</v>
+        <v>0.9468816032167366</v>
       </c>
       <c r="D4">
-        <v>0.9432938950499001</v>
+        <v>0.9591797143153302</v>
       </c>
       <c r="E4">
-        <v>0.9422595511364762</v>
+        <v>0.9581875554457588</v>
       </c>
       <c r="F4">
-        <v>0.9446146646196792</v>
+        <v>0.9607803103989427</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.034756126076632</v>
-      </c>
       <c r="J4">
-        <v>0.9523454716890711</v>
+        <v>0.9677491119372332</v>
       </c>
       <c r="K4">
-        <v>0.9541285829661412</v>
+        <v>0.9697971189084273</v>
       </c>
       <c r="L4">
-        <v>0.9531087073577578</v>
+        <v>0.9688182654966565</v>
       </c>
       <c r="M4">
-        <v>0.9554309358590025</v>
+        <v>0.9713763227572348</v>
       </c>
       <c r="N4">
-        <v>0.953697911494422</v>
+        <v>0.9895422491058082</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>0.9395022173767312</v>
+        <v>0.9509244106731572</v>
       </c>
       <c r="D5">
-        <v>0.9516754177543003</v>
+        <v>0.9631026882190855</v>
       </c>
       <c r="E5">
-        <v>0.9497176472351476</v>
+        <v>0.9616705989748804</v>
       </c>
       <c r="F5">
-        <v>0.9532993283589934</v>
+        <v>0.9649231955428303</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.035671673440919</v>
-      </c>
       <c r="J5">
-        <v>0.9600893540017476</v>
+        <v>0.971180271848294</v>
       </c>
       <c r="K5">
-        <v>0.962154039691353</v>
+        <v>0.9734314413350259</v>
       </c>
       <c r="L5">
-        <v>0.9602223998522936</v>
+        <v>0.9720178895995847</v>
       </c>
       <c r="M5">
-        <v>0.9637563778880313</v>
+        <v>0.9752284826548816</v>
       </c>
       <c r="N5">
-        <v>0.9614527910082185</v>
+        <v>0.9908315755062056</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>0.9408927335104317</v>
+        <v>0.9515952304570622</v>
       </c>
       <c r="D6">
-        <v>0.9530456756431345</v>
+        <v>0.9637537560491258</v>
       </c>
       <c r="E6">
-        <v>0.9509369584549588</v>
+        <v>0.9622486546381585</v>
       </c>
       <c r="F6">
-        <v>0.9547192082249544</v>
+        <v>0.9656107976045724</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.03582105633261</v>
-      </c>
       <c r="J6">
-        <v>0.9613550207455746</v>
+        <v>0.971749521106432</v>
       </c>
       <c r="K6">
-        <v>0.9634658355362518</v>
+        <v>0.9740344624544037</v>
       </c>
       <c r="L6">
-        <v>0.9613850450658341</v>
+        <v>0.9725487277716106</v>
       </c>
       <c r="M6">
-        <v>0.9651173148316042</v>
+        <v>0.975867712703463</v>
       </c>
       <c r="N6">
-        <v>0.9627202551439955</v>
+        <v>0.9910454254211866</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>0.9311115845965188</v>
+        <v>0.9469361694667777</v>
       </c>
       <c r="D7">
-        <v>0.943408491388671</v>
+        <v>0.959232654065476</v>
       </c>
       <c r="E7">
-        <v>0.9423615198751236</v>
+        <v>0.9582345582840017</v>
       </c>
       <c r="F7">
-        <v>0.9447334015276103</v>
+        <v>0.9608362153468907</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.034768663468665</v>
-      </c>
       <c r="J7">
-        <v>0.9524513737084066</v>
+        <v>0.9677954279974386</v>
       </c>
       <c r="K7">
-        <v>0.9542383282757466</v>
+        <v>0.9698461729346903</v>
       </c>
       <c r="L7">
-        <v>0.9532059924495655</v>
+        <v>0.9688614559221875</v>
       </c>
       <c r="M7">
-        <v>0.9555447760756444</v>
+        <v>0.9714283126904697</v>
       </c>
       <c r="N7">
-        <v>0.9538039639067721</v>
+        <v>0.9895596569287536</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>0.882973634043997</v>
+        <v>0.9261744677174901</v>
       </c>
       <c r="D8">
-        <v>0.8960321590867837</v>
+        <v>0.9391079380478483</v>
       </c>
       <c r="E8">
-        <v>0.9002188250488495</v>
+        <v>0.9403684479522167</v>
       </c>
       <c r="F8">
-        <v>0.8956507846576465</v>
+        <v>0.9395882069938934</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J8">
-        <v>0.9086222291115902</v>
+        <v>0.9501647465333087</v>
       </c>
       <c r="K8">
-        <v>0.908832536217319</v>
+        <v>0.9511811898013641</v>
       </c>
       <c r="L8">
-        <v>0.9129445702985375</v>
+        <v>0.9524217070341527</v>
       </c>
       <c r="M8">
-        <v>0.9084580052520786</v>
+        <v>0.9516538332042277</v>
       </c>
       <c r="N8">
-        <v>0.9099125768973551</v>
+        <v>0.9829285757789533</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>0.882973634043997</v>
+        <v>0.8829664379762204</v>
       </c>
       <c r="D9">
-        <v>0.8960321590867837</v>
+        <v>0.897346252958913</v>
       </c>
       <c r="E9">
-        <v>0.9002188250488495</v>
+        <v>0.9033265938330466</v>
       </c>
       <c r="F9">
-        <v>0.8956507846576465</v>
+        <v>0.8955066343226022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J9">
-        <v>0.9086222291115902</v>
+        <v>0.9134560506897448</v>
       </c>
       <c r="K9">
-        <v>0.908832536217319</v>
+        <v>0.9123577399318654</v>
       </c>
       <c r="L9">
-        <v>0.9129445702985375</v>
+        <v>0.9182104792025003</v>
       </c>
       <c r="M9">
-        <v>0.9084580052520786</v>
+        <v>0.9105578279156592</v>
       </c>
       <c r="N9">
-        <v>0.9099125768973551</v>
+        <v>0.9691287061623779</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>0.882973634043997</v>
+        <v>0.8468730671047167</v>
       </c>
       <c r="D10">
-        <v>0.8960321590867837</v>
+        <v>0.8625959859517608</v>
       </c>
       <c r="E10">
-        <v>0.9002188250488495</v>
+        <v>0.8725697433858398</v>
       </c>
       <c r="F10">
-        <v>0.8956507846576465</v>
+        <v>0.8588174885948292</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J10">
-        <v>0.9086222291115902</v>
+        <v>0.8828240654117884</v>
       </c>
       <c r="K10">
-        <v>0.908832536217319</v>
+        <v>0.8799851687862548</v>
       </c>
       <c r="L10">
-        <v>0.9129445702985375</v>
+        <v>0.8896962919276761</v>
       </c>
       <c r="M10">
-        <v>0.9084580052520786</v>
+        <v>0.8763083376357246</v>
       </c>
       <c r="N10">
-        <v>0.9099125768973551</v>
+        <v>0.957667415518484</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.882973634043997</v>
+        <v>0.8282890783724649</v>
       </c>
       <c r="D11">
-        <v>0.8960321590867837</v>
+        <v>0.8447561833071444</v>
       </c>
       <c r="E11">
-        <v>0.9002188250488495</v>
+        <v>0.8568138456012832</v>
       </c>
       <c r="F11">
-        <v>0.8956507846576465</v>
+        <v>0.8399729975456013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J11">
-        <v>0.9086222291115902</v>
+        <v>0.8670789392559681</v>
       </c>
       <c r="K11">
-        <v>0.908832536217319</v>
+        <v>0.8633494552468938</v>
       </c>
       <c r="L11">
-        <v>0.9129445702985375</v>
+        <v>0.8750565968457023</v>
       </c>
       <c r="M11">
-        <v>0.9084580052520786</v>
+        <v>0.8587091582441742</v>
       </c>
       <c r="N11">
-        <v>0.9099125768973551</v>
+        <v>0.9518084374166962</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.882973634043997</v>
+        <v>0.8207399668178754</v>
       </c>
       <c r="D12">
-        <v>0.8960321590867837</v>
+        <v>0.837520325677429</v>
       </c>
       <c r="E12">
-        <v>0.9002188250488495</v>
+        <v>0.8504310434964223</v>
       </c>
       <c r="F12">
-        <v>0.8956507846576465</v>
+        <v>0.8323270722770589</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J12">
-        <v>0.9086222291115902</v>
+        <v>0.8606900444454635</v>
       </c>
       <c r="K12">
-        <v>0.908832536217319</v>
+        <v>0.8565995126522377</v>
       </c>
       <c r="L12">
-        <v>0.9129445702985375</v>
+        <v>0.8691201108132453</v>
       </c>
       <c r="M12">
-        <v>0.9084580052520786</v>
+        <v>0.851567905096832</v>
       </c>
       <c r="N12">
-        <v>0.9099125768973551</v>
+        <v>0.9494386404049768</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.882973634043997</v>
+        <v>0.8223934844427669</v>
       </c>
       <c r="D13">
-        <v>0.8960321590867837</v>
+        <v>0.8391046725061369</v>
       </c>
       <c r="E13">
-        <v>0.9002188250488495</v>
+        <v>0.8518281961180361</v>
       </c>
       <c r="F13">
-        <v>0.8956507846576465</v>
+        <v>0.8340013480037975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J13">
-        <v>0.9086222291115902</v>
+        <v>0.8620890523164548</v>
       </c>
       <c r="K13">
-        <v>0.908832536217319</v>
+        <v>0.8580775732838728</v>
       </c>
       <c r="L13">
-        <v>0.9129445702985375</v>
+        <v>0.8704198504393663</v>
       </c>
       <c r="M13">
-        <v>0.9084580052520786</v>
+        <v>0.8531316823927473</v>
       </c>
       <c r="N13">
-        <v>0.9099125768973551</v>
+        <v>0.9499571672051632</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.882973634043997</v>
+        <v>0.8276799652396165</v>
       </c>
       <c r="D14">
-        <v>0.8960321590867837</v>
+        <v>0.8441721055013949</v>
       </c>
       <c r="E14">
-        <v>0.9002188250488495</v>
+        <v>0.8562984503546835</v>
       </c>
       <c r="F14">
-        <v>0.8956507846576465</v>
+        <v>0.8393558790782905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J14">
-        <v>0.9086222291115902</v>
+        <v>0.8665632778368979</v>
       </c>
       <c r="K14">
-        <v>0.908832536217319</v>
+        <v>0.862804648791999</v>
       </c>
       <c r="L14">
-        <v>0.9129445702985375</v>
+        <v>0.8745773637395812</v>
       </c>
       <c r="M14">
-        <v>0.9084580052520786</v>
+        <v>0.8581327799961566</v>
       </c>
       <c r="N14">
-        <v>0.9099125768973551</v>
+        <v>0.9516169949683416</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.882973634043997</v>
+        <v>0.8308429601038053</v>
       </c>
       <c r="D15">
-        <v>0.8960321590867837</v>
+        <v>0.847205550468845</v>
       </c>
       <c r="E15">
-        <v>0.9002188250488495</v>
+        <v>0.8589755160544243</v>
       </c>
       <c r="F15">
-        <v>0.8956507846576465</v>
+        <v>0.8425608132442522</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J15">
-        <v>0.9086222291115902</v>
+        <v>0.869241296235317</v>
       </c>
       <c r="K15">
-        <v>0.908832536217319</v>
+        <v>0.8656340386968473</v>
       </c>
       <c r="L15">
-        <v>0.9129445702985375</v>
+        <v>0.8770663581352077</v>
       </c>
       <c r="M15">
-        <v>0.9084580052520786</v>
+        <v>0.8611261152443969</v>
       </c>
       <c r="N15">
-        <v>0.9099125768973551</v>
+        <v>0.9526115444975169</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>0.882973634043997</v>
+        <v>0.8480298741043965</v>
       </c>
       <c r="D16">
-        <v>0.8960321590867837</v>
+        <v>0.8637076973059944</v>
       </c>
       <c r="E16">
-        <v>0.9002188250488495</v>
+        <v>0.8735524357669421</v>
       </c>
       <c r="F16">
-        <v>0.8956507846576465</v>
+        <v>0.8599915495197704</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J16">
-        <v>0.9086222291115902</v>
+        <v>0.8838048824507926</v>
       </c>
       <c r="K16">
-        <v>0.908832536217319</v>
+        <v>0.8810215239616954</v>
       </c>
       <c r="L16">
-        <v>0.9129445702985375</v>
+        <v>0.8906086653563268</v>
       </c>
       <c r="M16">
-        <v>0.9084580052520786</v>
+        <v>0.8774046983569966</v>
       </c>
       <c r="N16">
-        <v>0.9099125768973551</v>
+        <v>0.9580332069429032</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>0.882973634043997</v>
+        <v>0.8579141914326406</v>
       </c>
       <c r="D17">
-        <v>0.8960321590867837</v>
+        <v>0.8732123726289146</v>
       </c>
       <c r="E17">
-        <v>0.9002188250488495</v>
+        <v>0.8819577477199825</v>
       </c>
       <c r="F17">
-        <v>0.8956507846576465</v>
+        <v>0.8700282485859155</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J17">
-        <v>0.9086222291115902</v>
+        <v>0.892188432447136</v>
       </c>
       <c r="K17">
-        <v>0.908832536217319</v>
+        <v>0.8898801994881712</v>
       </c>
       <c r="L17">
-        <v>0.9129445702985375</v>
+        <v>0.8984090338804037</v>
       </c>
       <c r="M17">
-        <v>0.9084580052520786</v>
+        <v>0.8867763770204558</v>
       </c>
       <c r="N17">
-        <v>0.9099125768973551</v>
+        <v>0.9611633615419035</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>0.882973634043997</v>
+        <v>0.8634122227771015</v>
       </c>
       <c r="D18">
-        <v>0.8960321590867837</v>
+        <v>0.878503554773403</v>
       </c>
       <c r="E18">
-        <v>0.9002188250488495</v>
+        <v>0.8866396437364551</v>
       </c>
       <c r="F18">
-        <v>0.8956507846576465</v>
+        <v>0.8756148848764115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J18">
-        <v>0.9086222291115902</v>
+        <v>0.8968537786236589</v>
       </c>
       <c r="K18">
-        <v>0.908832536217319</v>
+        <v>0.894810322965394</v>
       </c>
       <c r="L18">
-        <v>0.9129445702985375</v>
+        <v>0.9027512067937237</v>
       </c>
       <c r="M18">
-        <v>0.9084580052520786</v>
+        <v>0.8919921341988729</v>
       </c>
       <c r="N18">
-        <v>0.9099125768973551</v>
+        <v>0.9629078423574478</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>0.882973634043997</v>
+        <v>0.8652457588597611</v>
       </c>
       <c r="D19">
-        <v>0.8960321590867837</v>
+        <v>0.8802687834940632</v>
       </c>
       <c r="E19">
-        <v>0.9002188250488495</v>
+        <v>0.8882020129927325</v>
       </c>
       <c r="F19">
-        <v>0.8956507846576465</v>
+        <v>0.8774785820916431</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J19">
-        <v>0.9086222291115902</v>
+        <v>0.898409921822681</v>
       </c>
       <c r="K19">
-        <v>0.908832536217319</v>
+        <v>0.8964548527994312</v>
       </c>
       <c r="L19">
-        <v>0.9129445702985375</v>
+        <v>0.9041997594955735</v>
       </c>
       <c r="M19">
-        <v>0.9084580052520786</v>
+        <v>0.8937319747953345</v>
       </c>
       <c r="N19">
-        <v>0.9099125768973551</v>
+        <v>0.9634901039370495</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>0.882973634043997</v>
+        <v>0.8568824007536117</v>
       </c>
       <c r="D20">
-        <v>0.8960321590867837</v>
+        <v>0.872219741490709</v>
       </c>
       <c r="E20">
-        <v>0.9002188250488495</v>
+        <v>0.8810796298686545</v>
       </c>
       <c r="F20">
-        <v>0.8956507846576465</v>
+        <v>0.8689801363324041</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J20">
-        <v>0.9086222291115902</v>
+        <v>0.8913130663084667</v>
       </c>
       <c r="K20">
-        <v>0.908832536217319</v>
+        <v>0.88895518510757</v>
       </c>
       <c r="L20">
-        <v>0.9129445702985375</v>
+        <v>0.8975944107342749</v>
       </c>
       <c r="M20">
-        <v>0.9084580052520786</v>
+        <v>0.8857977840900676</v>
       </c>
       <c r="N20">
-        <v>0.9099125768973551</v>
+        <v>0.960836240944495</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.882973634043997</v>
+        <v>0.8261434535691979</v>
       </c>
       <c r="D21">
-        <v>0.8960321590867837</v>
+        <v>0.8426989324459968</v>
       </c>
       <c r="E21">
-        <v>0.9002188250488495</v>
+        <v>0.8549986452693757</v>
       </c>
       <c r="F21">
-        <v>0.8956507846576465</v>
+        <v>0.8377993245278839</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J21">
-        <v>0.9086222291115902</v>
+        <v>0.8652626258062025</v>
       </c>
       <c r="K21">
-        <v>0.908832536217319</v>
+        <v>0.8614304880918255</v>
       </c>
       <c r="L21">
-        <v>0.9129445702985375</v>
+        <v>0.87336866144795</v>
       </c>
       <c r="M21">
-        <v>0.9084580052520786</v>
+        <v>0.8566789775111051</v>
       </c>
       <c r="N21">
-        <v>0.9099125768973551</v>
+        <v>0.9511342516081754</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.882973634043997</v>
+        <v>0.8028275135941095</v>
       </c>
       <c r="D22">
-        <v>0.8960321590867837</v>
+        <v>0.820377883786621</v>
       </c>
       <c r="E22">
-        <v>0.9002188250488495</v>
+        <v>0.835329715990011</v>
       </c>
       <c r="F22">
-        <v>0.8956507846576465</v>
+        <v>0.8142059764286206</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J22">
-        <v>0.9086222291115902</v>
+        <v>0.8455497180635558</v>
       </c>
       <c r="K22">
-        <v>0.908832536217319</v>
+        <v>0.8406036371003334</v>
       </c>
       <c r="L22">
-        <v>0.9129445702985375</v>
+        <v>0.855061770043259</v>
       </c>
       <c r="M22">
-        <v>0.9084580052520786</v>
+        <v>0.8346429140753292</v>
       </c>
       <c r="N22">
-        <v>0.9099125768973551</v>
+        <v>0.9438422292641896</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.882973634043997</v>
+        <v>0.8156837329872533</v>
       </c>
       <c r="D23">
-        <v>0.8960321590867837</v>
+        <v>0.8326775768163986</v>
       </c>
       <c r="E23">
-        <v>0.9002188250488495</v>
+        <v>0.8461619512412535</v>
       </c>
       <c r="F23">
-        <v>0.8956507846576465</v>
+        <v>0.8272089262752124</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J23">
-        <v>0.9086222291115902</v>
+        <v>0.8564134589403375</v>
       </c>
       <c r="K23">
-        <v>0.908832536217319</v>
+        <v>0.8520812851637584</v>
       </c>
       <c r="L23">
-        <v>0.9129445702985375</v>
+        <v>0.8651476989181999</v>
       </c>
       <c r="M23">
-        <v>0.9084580052520786</v>
+        <v>0.8467875303482011</v>
       </c>
       <c r="N23">
-        <v>0.9099125768973551</v>
+        <v>0.947855001612551</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>0.882973634043997</v>
+        <v>0.8573494356765375</v>
       </c>
       <c r="D24">
-        <v>0.8960321590867837</v>
+        <v>0.8726690376042336</v>
       </c>
       <c r="E24">
-        <v>0.9002188250488495</v>
+        <v>0.8814770852533451</v>
       </c>
       <c r="F24">
-        <v>0.8956507846576465</v>
+        <v>0.8694545471439954</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J24">
-        <v>0.9086222291115902</v>
+        <v>0.8917092900049755</v>
       </c>
       <c r="K24">
-        <v>0.908832536217319</v>
+        <v>0.8893738802689085</v>
       </c>
       <c r="L24">
-        <v>0.9129445702985375</v>
+        <v>0.8979631356570116</v>
       </c>
       <c r="M24">
-        <v>0.9084580052520786</v>
+        <v>0.8862407304053626</v>
       </c>
       <c r="N24">
-        <v>0.9099125768973551</v>
+        <v>0.9609843000692221</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>0.882973634043997</v>
+        <v>0.8951456139110268</v>
       </c>
       <c r="D25">
-        <v>0.8960321590867837</v>
+        <v>0.9091006664296261</v>
       </c>
       <c r="E25">
-        <v>0.9002188250488495</v>
+        <v>0.9137457692448476</v>
       </c>
       <c r="F25">
-        <v>0.8956507846576465</v>
+        <v>0.9079139287117364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.029556291872451</v>
-      </c>
       <c r="J25">
-        <v>0.9086222291115902</v>
+        <v>0.9238019521707083</v>
       </c>
       <c r="K25">
-        <v>0.908832536217319</v>
+        <v>0.9232955613197537</v>
       </c>
       <c r="L25">
-        <v>0.9129445702985375</v>
+        <v>0.9278489672747026</v>
       </c>
       <c r="M25">
-        <v>0.9084580052520786</v>
+        <v>0.922132448327753</v>
       </c>
       <c r="N25">
-        <v>0.9099125768973551</v>
+        <v>0.9730135653537155</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9204505550534068</v>
+        <v>1.04187148740654</v>
       </c>
       <c r="D2">
-        <v>0.9335661079182782</v>
+        <v>1.051201815403074</v>
       </c>
       <c r="E2">
-        <v>0.9354497081613496</v>
+        <v>1.039821650265975</v>
       </c>
       <c r="F2">
-        <v>0.9337380927167481</v>
+        <v>1.058114308825262</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.94530204539643</v>
+        <v>1.046950360256459</v>
       </c>
       <c r="K2">
-        <v>0.9460357134635368</v>
+        <v>1.053953972737854</v>
       </c>
       <c r="L2">
-        <v>0.947888126736144</v>
+        <v>1.042605748426806</v>
       </c>
       <c r="M2">
-        <v>0.9462048439707239</v>
+        <v>1.06084742817026</v>
       </c>
       <c r="N2">
-        <v>0.9810989348345072</v>
+        <v>1.018867705991366</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9369196253462242</v>
+        <v>1.044480530114546</v>
       </c>
       <c r="D3">
-        <v>0.9495188695899114</v>
+        <v>1.053794344556942</v>
       </c>
       <c r="E3">
-        <v>0.9496103810823603</v>
+        <v>1.042104672355415</v>
       </c>
       <c r="F3">
-        <v>0.9505793546024439</v>
+        <v>1.060870762483992</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9592912387671997</v>
+        <v>1.049197364533617</v>
       </c>
       <c r="K3">
-        <v>0.9608411855176018</v>
+        <v>1.056354528623647</v>
       </c>
       <c r="L3">
-        <v>0.9609313631245052</v>
+        <v>1.044695193457337</v>
       </c>
       <c r="M3">
-        <v>0.9618862327186352</v>
+        <v>1.063412932042585</v>
       </c>
       <c r="N3">
-        <v>0.9863620480397719</v>
+        <v>1.019675759831763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9468816032167366</v>
+        <v>1.04615936746695</v>
       </c>
       <c r="D4">
-        <v>0.9591797143153302</v>
+        <v>1.055462855549147</v>
       </c>
       <c r="E4">
-        <v>0.9581875554457588</v>
+        <v>1.043573327982252</v>
       </c>
       <c r="F4">
-        <v>0.9607803103989427</v>
+        <v>1.062645297380344</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9677491119372332</v>
+        <v>1.050642091253775</v>
       </c>
       <c r="K4">
-        <v>0.9697971189084273</v>
+        <v>1.057898577006448</v>
       </c>
       <c r="L4">
-        <v>0.9688182654966565</v>
+        <v>1.046038290180848</v>
       </c>
       <c r="M4">
-        <v>0.9713763227572348</v>
+        <v>1.065063695222774</v>
       </c>
       <c r="N4">
-        <v>0.9895422491058082</v>
+        <v>1.020193834311686</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9509244106731572</v>
+        <v>1.046862965162818</v>
       </c>
       <c r="D5">
-        <v>0.9631026882190855</v>
+        <v>1.056162196342182</v>
       </c>
       <c r="E5">
-        <v>0.9616705989748804</v>
+        <v>1.044188741922258</v>
       </c>
       <c r="F5">
-        <v>0.9649231955428303</v>
+        <v>1.063389202993886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.971180271848294</v>
+        <v>1.051247297617153</v>
       </c>
       <c r="K5">
-        <v>0.9734314413350259</v>
+        <v>1.058545532444823</v>
       </c>
       <c r="L5">
-        <v>0.9720178895995847</v>
+        <v>1.046600844292043</v>
       </c>
       <c r="M5">
-        <v>0.9752284826548816</v>
+        <v>1.065755512594657</v>
       </c>
       <c r="N5">
-        <v>0.9908315755062056</v>
+        <v>1.020410505283553</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9515952304570622</v>
+        <v>1.046980975933701</v>
       </c>
       <c r="D6">
-        <v>0.9637537560491258</v>
+        <v>1.056279497256248</v>
       </c>
       <c r="E6">
-        <v>0.9622486546381585</v>
+        <v>1.044291956351953</v>
       </c>
       <c r="F6">
-        <v>0.9656107976045724</v>
+        <v>1.063513986188948</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.971749521106432</v>
+        <v>1.051348789515655</v>
       </c>
       <c r="K6">
-        <v>0.9740344624544037</v>
+        <v>1.058654033945396</v>
       </c>
       <c r="L6">
-        <v>0.9725487277716106</v>
+        <v>1.046695178856998</v>
       </c>
       <c r="M6">
-        <v>0.975867712703463</v>
+        <v>1.065871546647892</v>
       </c>
       <c r="N6">
-        <v>0.9910454254211866</v>
+        <v>1.020446819728551</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9469361694667777</v>
+        <v>1.0461687774792</v>
       </c>
       <c r="D7">
-        <v>0.959232654065476</v>
+        <v>1.055472208351387</v>
       </c>
       <c r="E7">
-        <v>0.9582345582840017</v>
+        <v>1.043581558996655</v>
       </c>
       <c r="F7">
-        <v>0.9608362153468907</v>
+        <v>1.062655245685326</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9677954279974386</v>
+        <v>1.050650186453369</v>
       </c>
       <c r="K7">
-        <v>0.9698461729346903</v>
+        <v>1.057907230077869</v>
       </c>
       <c r="L7">
-        <v>0.9688614559221875</v>
+        <v>1.046045815177342</v>
       </c>
       <c r="M7">
-        <v>0.9714283126904697</v>
+        <v>1.065072947741051</v>
       </c>
       <c r="N7">
-        <v>0.9895596569287536</v>
+        <v>1.020196733884585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9261744677174901</v>
+        <v>1.042755207016751</v>
       </c>
       <c r="D8">
-        <v>0.9391079380478483</v>
+        <v>1.052079878841492</v>
       </c>
       <c r="E8">
-        <v>0.9403684479522167</v>
+        <v>1.040595023663328</v>
       </c>
       <c r="F8">
-        <v>0.9395882069938934</v>
+        <v>1.059047782971711</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9501647465333087</v>
+        <v>1.047711691033278</v>
       </c>
       <c r="K8">
-        <v>0.9511811898013641</v>
+        <v>1.054767206369114</v>
       </c>
       <c r="L8">
-        <v>0.9524217070341527</v>
+        <v>1.043313762384146</v>
       </c>
       <c r="M8">
-        <v>0.9516538332042277</v>
+        <v>1.061716412354042</v>
       </c>
       <c r="N8">
-        <v>0.9829285757789533</v>
+        <v>1.019141795176683</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8829664379762204</v>
+        <v>1.036665337769894</v>
       </c>
       <c r="D9">
-        <v>0.897346252958913</v>
+        <v>1.046030263772808</v>
       </c>
       <c r="E9">
-        <v>0.9033265938330466</v>
+        <v>1.035263993507623</v>
       </c>
       <c r="F9">
-        <v>0.8955066343226022</v>
+        <v>1.052618565370168</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9134560506897448</v>
+        <v>1.042460483694759</v>
       </c>
       <c r="K9">
-        <v>0.9123577399318654</v>
+        <v>1.049160464999228</v>
       </c>
       <c r="L9">
-        <v>0.9182104792025003</v>
+        <v>1.038428974103901</v>
       </c>
       <c r="M9">
-        <v>0.9105578279156592</v>
+        <v>1.055727867516467</v>
       </c>
       <c r="N9">
-        <v>0.9691287061623779</v>
+        <v>1.017245289056236</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8468730671047167</v>
+        <v>1.032551179727446</v>
       </c>
       <c r="D10">
-        <v>0.8625959859517608</v>
+        <v>1.041944948051616</v>
       </c>
       <c r="E10">
-        <v>0.8725697433858398</v>
+        <v>1.031660577821855</v>
       </c>
       <c r="F10">
-        <v>0.8588174885948292</v>
+        <v>1.048279616504078</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8828240654117884</v>
+        <v>1.038906952928113</v>
       </c>
       <c r="K10">
-        <v>0.8799851687862548</v>
+        <v>1.045369439635251</v>
       </c>
       <c r="L10">
-        <v>0.8896962919276761</v>
+        <v>1.035121752625017</v>
       </c>
       <c r="M10">
-        <v>0.8763083376357246</v>
+        <v>1.051681907630734</v>
       </c>
       <c r="N10">
-        <v>0.957667415518484</v>
+        <v>1.01595444007069</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8282890783724649</v>
+        <v>1.03075592845285</v>
       </c>
       <c r="D11">
-        <v>0.8447561833071444</v>
+        <v>1.040162685939146</v>
       </c>
       <c r="E11">
-        <v>0.8568138456012832</v>
+        <v>1.030087765637151</v>
       </c>
       <c r="F11">
-        <v>0.8399729975456013</v>
+        <v>1.046387344262863</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8670789392559681</v>
+        <v>1.037354932637966</v>
       </c>
       <c r="K11">
-        <v>0.8633494552468938</v>
+        <v>1.043714426013899</v>
       </c>
       <c r="L11">
-        <v>0.8750565968457023</v>
+        <v>1.033676926104314</v>
       </c>
       <c r="M11">
-        <v>0.8587091582441742</v>
+        <v>1.049916362575612</v>
       </c>
       <c r="N11">
-        <v>0.9518084374166962</v>
+        <v>1.015388915221137</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8207399668178754</v>
+        <v>1.030086940443625</v>
       </c>
       <c r="D12">
-        <v>0.837520325677429</v>
+        <v>1.039498599960275</v>
       </c>
       <c r="E12">
-        <v>0.8504310434964223</v>
+        <v>1.029501605844354</v>
       </c>
       <c r="F12">
-        <v>0.8323270722770589</v>
+        <v>1.045682363410549</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8606900444454635</v>
+        <v>1.036776372736509</v>
       </c>
       <c r="K12">
-        <v>0.8565995126522377</v>
+        <v>1.043097582477152</v>
       </c>
       <c r="L12">
-        <v>0.8691201108132453</v>
+        <v>1.033138268930366</v>
       </c>
       <c r="M12">
-        <v>0.851567905096832</v>
+        <v>1.049258437118932</v>
       </c>
       <c r="N12">
-        <v>0.9494386404049768</v>
+        <v>1.015177840786767</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8223934844427669</v>
+        <v>1.030230539311422</v>
       </c>
       <c r="D13">
-        <v>0.8391046725061369</v>
+        <v>1.039641143794279</v>
       </c>
       <c r="E13">
-        <v>0.8518281961180361</v>
+        <v>1.029627428339762</v>
       </c>
       <c r="F13">
-        <v>0.8340013480037975</v>
+        <v>1.045833680862917</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8620890523164548</v>
+        <v>1.036900570629133</v>
       </c>
       <c r="K13">
-        <v>0.8580775732838728</v>
+        <v>1.043229993638125</v>
       </c>
       <c r="L13">
-        <v>0.8704198504393663</v>
+        <v>1.033253903570133</v>
       </c>
       <c r="M13">
-        <v>0.8531316823927473</v>
+        <v>1.049399661718107</v>
       </c>
       <c r="N13">
-        <v>0.9499571672051632</v>
+        <v>1.015223163232381</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8276799652396165</v>
+        <v>1.030700674057047</v>
       </c>
       <c r="D14">
-        <v>0.8441721055013949</v>
+        <v>1.040107835157791</v>
       </c>
       <c r="E14">
-        <v>0.8562984503546835</v>
+        <v>1.030039353609647</v>
       </c>
       <c r="F14">
-        <v>0.8393558790782905</v>
+        <v>1.046329113781357</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8665632778368979</v>
+        <v>1.03730715134173</v>
       </c>
       <c r="K14">
-        <v>0.862804648791999</v>
+        <v>1.043663480760191</v>
       </c>
       <c r="L14">
-        <v>0.8745773637395812</v>
+        <v>1.033632441392221</v>
       </c>
       <c r="M14">
-        <v>0.8581327799961566</v>
+        <v>1.049862022024539</v>
       </c>
       <c r="N14">
-        <v>0.9516169949683416</v>
+        <v>1.015371488560734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8308429601038053</v>
+        <v>1.030990052053566</v>
       </c>
       <c r="D15">
-        <v>0.847205550468845</v>
+        <v>1.040395101877317</v>
       </c>
       <c r="E15">
-        <v>0.8589755160544243</v>
+        <v>1.030292894265003</v>
       </c>
       <c r="F15">
-        <v>0.8425608132442522</v>
+        <v>1.046634084720211</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.869241296235317</v>
+        <v>1.037557382670715</v>
       </c>
       <c r="K15">
-        <v>0.8656340386968473</v>
+        <v>1.043930286279885</v>
       </c>
       <c r="L15">
-        <v>0.8770663581352077</v>
+        <v>1.033865406144137</v>
       </c>
       <c r="M15">
-        <v>0.8611261152443969</v>
+        <v>1.050146613745548</v>
       </c>
       <c r="N15">
-        <v>0.9526115444975169</v>
+        <v>1.015462741658496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8480298741043965</v>
+        <v>1.032670027291305</v>
       </c>
       <c r="D16">
-        <v>0.8637076973059944</v>
+        <v>1.042062944286951</v>
       </c>
       <c r="E16">
-        <v>0.8735524357669421</v>
+        <v>1.031764690868103</v>
       </c>
       <c r="F16">
-        <v>0.8599915495197704</v>
+        <v>1.048404909474333</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8838048824507926</v>
+        <v>1.039009668907738</v>
       </c>
       <c r="K16">
-        <v>0.8810215239616954</v>
+        <v>1.045478987321479</v>
       </c>
       <c r="L16">
-        <v>0.8906086653563268</v>
+        <v>1.035217366315299</v>
       </c>
       <c r="M16">
-        <v>0.8774046983569966</v>
+        <v>1.0517987875594</v>
       </c>
       <c r="N16">
-        <v>0.9580332069429032</v>
+        <v>1.015991831371258</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8579141914326406</v>
+        <v>1.033720082961781</v>
       </c>
       <c r="D17">
-        <v>0.8732123726289146</v>
+        <v>1.04310552476503</v>
       </c>
       <c r="E17">
-        <v>0.8819577477199825</v>
+        <v>1.032684513438599</v>
       </c>
       <c r="F17">
-        <v>0.8700282485859155</v>
+        <v>1.049512035391182</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.892188432447136</v>
+        <v>1.039917035496743</v>
       </c>
       <c r="K17">
-        <v>0.8898801994881712</v>
+        <v>1.046446787790024</v>
       </c>
       <c r="L17">
-        <v>0.8984090338804037</v>
+        <v>1.036061949156614</v>
       </c>
       <c r="M17">
-        <v>0.8867763770204558</v>
+        <v>1.052831452570964</v>
       </c>
       <c r="N17">
-        <v>0.9611633615419035</v>
+        <v>1.016321936643824</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8634122227771015</v>
+        <v>1.034331237235226</v>
       </c>
       <c r="D18">
-        <v>0.878503554773403</v>
+        <v>1.043712367005878</v>
       </c>
       <c r="E18">
-        <v>0.8866396437364551</v>
+        <v>1.033219828073061</v>
       </c>
       <c r="F18">
-        <v>0.8756148848764115</v>
+        <v>1.050156508315902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8968537786236589</v>
+        <v>1.040445006863655</v>
       </c>
       <c r="K18">
-        <v>0.894810322965394</v>
+        <v>1.047009994367402</v>
       </c>
       <c r="L18">
-        <v>0.9027512067937237</v>
+        <v>1.036553351603943</v>
       </c>
       <c r="M18">
-        <v>0.8919921341988729</v>
+        <v>1.053432480014797</v>
       </c>
       <c r="N18">
-        <v>0.9629078423574478</v>
+        <v>1.016513848429056</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8652457588597611</v>
+        <v>1.034539402610254</v>
       </c>
       <c r="D19">
-        <v>0.8802687834940632</v>
+        <v>1.043919070187846</v>
       </c>
       <c r="E19">
-        <v>0.8882020129927325</v>
+        <v>1.033402154631216</v>
       </c>
       <c r="F19">
-        <v>0.8774785820916431</v>
+        <v>1.050376039737977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.898409921822681</v>
+        <v>1.040624816393088</v>
       </c>
       <c r="K19">
-        <v>0.8964548527994312</v>
+        <v>1.04720181578818</v>
       </c>
       <c r="L19">
-        <v>0.9041997594955735</v>
+        <v>1.036720700708766</v>
       </c>
       <c r="M19">
-        <v>0.8937319747953345</v>
+        <v>1.053637195203283</v>
       </c>
       <c r="N19">
-        <v>0.9634901039370495</v>
+        <v>1.016579178761367</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8568824007536117</v>
+        <v>1.033607559590002</v>
       </c>
       <c r="D20">
-        <v>0.872219741490709</v>
+        <v>1.042993798418151</v>
       </c>
       <c r="E20">
-        <v>0.8810796298686545</v>
+        <v>1.032585950028396</v>
       </c>
       <c r="F20">
-        <v>0.8689801363324041</v>
+        <v>1.049393385779098</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8913130663084667</v>
+        <v>1.039819816565332</v>
       </c>
       <c r="K20">
-        <v>0.88895518510757</v>
+        <v>1.046343086438366</v>
       </c>
       <c r="L20">
-        <v>0.8975944107342749</v>
+        <v>1.035971460935525</v>
       </c>
       <c r="M20">
-        <v>0.8857977840900676</v>
+        <v>1.052720793296082</v>
       </c>
       <c r="N20">
-        <v>0.960836240944495</v>
+        <v>1.016286585128486</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8261434535691979</v>
+        <v>1.030562291138301</v>
       </c>
       <c r="D21">
-        <v>0.8426989324459968</v>
+        <v>1.039970464078726</v>
       </c>
       <c r="E21">
-        <v>0.8549986452693757</v>
+        <v>1.029918106193661</v>
       </c>
       <c r="F21">
-        <v>0.8377993245278839</v>
+        <v>1.046183279955624</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8652626258062025</v>
+        <v>1.037187481177587</v>
       </c>
       <c r="K21">
-        <v>0.8614304880918255</v>
+        <v>1.043535888114372</v>
       </c>
       <c r="L21">
-        <v>0.87336866144795</v>
+        <v>1.033521026740186</v>
       </c>
       <c r="M21">
-        <v>0.8566789775111051</v>
+        <v>1.049725927686526</v>
       </c>
       <c r="N21">
-        <v>0.9511342516081754</v>
+        <v>1.015327838624566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8028275135941095</v>
+        <v>1.028635119882757</v>
       </c>
       <c r="D22">
-        <v>0.820377883786621</v>
+        <v>1.038057531862724</v>
       </c>
       <c r="E22">
-        <v>0.835329715990011</v>
+        <v>1.028229425464244</v>
       </c>
       <c r="F22">
-        <v>0.8142059764286206</v>
+        <v>1.04415272847382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8455497180635558</v>
+        <v>1.035520412689214</v>
       </c>
       <c r="K22">
-        <v>0.8406036371003334</v>
+        <v>1.041758716308536</v>
       </c>
       <c r="L22">
-        <v>0.855061770043259</v>
+        <v>1.031968827991334</v>
       </c>
       <c r="M22">
-        <v>0.8346429140753292</v>
+        <v>1.047830611641984</v>
       </c>
       <c r="N22">
-        <v>0.9438422292641896</v>
+        <v>1.0147191610485</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8156837329872533</v>
+        <v>1.029657960769318</v>
       </c>
       <c r="D23">
-        <v>0.8326775768163986</v>
+        <v>1.039072781158901</v>
       </c>
       <c r="E23">
-        <v>0.8461619512412535</v>
+        <v>1.02912572142676</v>
       </c>
       <c r="F23">
-        <v>0.8272089262752124</v>
+        <v>1.045230349335697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8564134589403375</v>
+        <v>1.036405319775499</v>
       </c>
       <c r="K23">
-        <v>0.8520812851637584</v>
+        <v>1.04270200770965</v>
       </c>
       <c r="L23">
-        <v>0.8651476989181999</v>
+        <v>1.032792791232976</v>
       </c>
       <c r="M23">
-        <v>0.8467875303482011</v>
+        <v>1.048836549195752</v>
       </c>
       <c r="N23">
-        <v>0.947855001612551</v>
+        <v>1.01504239798001</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8573494356765375</v>
+        <v>1.033658408149573</v>
       </c>
       <c r="D24">
-        <v>0.8726690376042336</v>
+        <v>1.043044286687923</v>
       </c>
       <c r="E24">
-        <v>0.8814770852533451</v>
+        <v>1.032630490302435</v>
       </c>
       <c r="F24">
-        <v>0.8694545471439954</v>
+        <v>1.049447002428488</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8917092900049755</v>
+        <v>1.039863749567876</v>
       </c>
       <c r="K24">
-        <v>0.8893738802689085</v>
+        <v>1.046389948613271</v>
       </c>
       <c r="L24">
-        <v>0.8979631356570116</v>
+        <v>1.036012352460081</v>
       </c>
       <c r="M24">
-        <v>0.8862407304053626</v>
+        <v>1.052770799498561</v>
       </c>
       <c r="N24">
-        <v>0.9609843000692221</v>
+        <v>1.016302560911395</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8951456139110268</v>
+        <v>1.03824897671035</v>
       </c>
       <c r="D25">
-        <v>0.9091006664296261</v>
+        <v>1.047603150431547</v>
       </c>
       <c r="E25">
-        <v>0.9137457692448476</v>
+        <v>1.036650642989912</v>
       </c>
       <c r="F25">
-        <v>0.9079139287117364</v>
+        <v>1.054289671377581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9238019521707083</v>
+        <v>1.043827077826951</v>
       </c>
       <c r="K25">
-        <v>0.9232955613197537</v>
+        <v>1.050619041999529</v>
       </c>
       <c r="L25">
-        <v>0.9278489672747026</v>
+        <v>1.039700501341906</v>
       </c>
       <c r="M25">
-        <v>0.922132448327753</v>
+        <v>1.057285204556185</v>
       </c>
       <c r="N25">
-        <v>0.9730135653537155</v>
+        <v>1.017740160577004</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.04187148740654</v>
+        <v>0.920450555053404</v>
       </c>
       <c r="D2">
-        <v>1.051201815403074</v>
+        <v>0.9335661079182753</v>
       </c>
       <c r="E2">
-        <v>1.039821650265975</v>
+        <v>0.9354497081613474</v>
       </c>
       <c r="F2">
-        <v>1.058114308825262</v>
+        <v>0.9337380927167452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.046950360256459</v>
+        <v>0.9453020453964275</v>
       </c>
       <c r="K2">
-        <v>1.053953972737854</v>
+        <v>0.946035713463534</v>
       </c>
       <c r="L2">
-        <v>1.042605748426806</v>
+        <v>0.9478881267361419</v>
       </c>
       <c r="M2">
-        <v>1.06084742817026</v>
+        <v>0.9462048439707212</v>
       </c>
       <c r="N2">
-        <v>1.018867705991366</v>
+        <v>0.9810989348345064</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.044480530114546</v>
+        <v>0.9369196253462244</v>
       </c>
       <c r="D3">
-        <v>1.053794344556942</v>
+        <v>0.9495188695899114</v>
       </c>
       <c r="E3">
-        <v>1.042104672355415</v>
+        <v>0.9496103810823608</v>
       </c>
       <c r="F3">
-        <v>1.060870762483992</v>
+        <v>0.9505793546024439</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.049197364533617</v>
+        <v>0.9592912387671999</v>
       </c>
       <c r="K3">
-        <v>1.056354528623647</v>
+        <v>0.9608411855176018</v>
       </c>
       <c r="L3">
-        <v>1.044695193457337</v>
+        <v>0.9609313631245057</v>
       </c>
       <c r="M3">
-        <v>1.063412932042585</v>
+        <v>0.9618862327186353</v>
       </c>
       <c r="N3">
-        <v>1.019675759831763</v>
+        <v>0.9863620480397719</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.04615936746695</v>
+        <v>0.9468816032167374</v>
       </c>
       <c r="D4">
-        <v>1.055462855549147</v>
+        <v>0.9591797143153306</v>
       </c>
       <c r="E4">
-        <v>1.043573327982252</v>
+        <v>0.9581875554457594</v>
       </c>
       <c r="F4">
-        <v>1.062645297380344</v>
+        <v>0.9607803103989435</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.050642091253775</v>
+        <v>0.9677491119372342</v>
       </c>
       <c r="K4">
-        <v>1.057898577006448</v>
+        <v>0.9697971189084279</v>
       </c>
       <c r="L4">
-        <v>1.046038290180848</v>
+        <v>0.9688182654966571</v>
       </c>
       <c r="M4">
-        <v>1.065063695222774</v>
+        <v>0.9713763227572353</v>
       </c>
       <c r="N4">
-        <v>1.020193834311686</v>
+        <v>0.9895422491058086</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.046862965162818</v>
+        <v>0.9509244106731551</v>
       </c>
       <c r="D5">
-        <v>1.056162196342182</v>
+        <v>0.9631026882190834</v>
       </c>
       <c r="E5">
-        <v>1.044188741922258</v>
+        <v>0.9616705989748784</v>
       </c>
       <c r="F5">
-        <v>1.063389202993886</v>
+        <v>0.9649231955428282</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.051247297617153</v>
+        <v>0.971180271848292</v>
       </c>
       <c r="K5">
-        <v>1.058545532444823</v>
+        <v>0.9734314413350238</v>
       </c>
       <c r="L5">
-        <v>1.046600844292043</v>
+        <v>0.9720178895995828</v>
       </c>
       <c r="M5">
-        <v>1.065755512594657</v>
+        <v>0.9752284826548795</v>
       </c>
       <c r="N5">
-        <v>1.020410505283553</v>
+        <v>0.9908315755062049</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.046980975933701</v>
+        <v>0.9515952304570601</v>
       </c>
       <c r="D6">
-        <v>1.056279497256248</v>
+        <v>0.9637537560491235</v>
       </c>
       <c r="E6">
-        <v>1.044291956351953</v>
+        <v>0.9622486546381567</v>
       </c>
       <c r="F6">
-        <v>1.063513986188948</v>
+        <v>0.9656107976045697</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.051348789515655</v>
+        <v>0.97174952110643</v>
       </c>
       <c r="K6">
-        <v>1.058654033945396</v>
+        <v>0.9740344624544014</v>
       </c>
       <c r="L6">
-        <v>1.046695178856998</v>
+        <v>0.9725487277716085</v>
       </c>
       <c r="M6">
-        <v>1.065871546647892</v>
+        <v>0.9758677127034605</v>
       </c>
       <c r="N6">
-        <v>1.020446819728551</v>
+        <v>0.9910454254211858</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.0461687774792</v>
+        <v>0.9469361694667773</v>
       </c>
       <c r="D7">
-        <v>1.055472208351387</v>
+        <v>0.9592326540654752</v>
       </c>
       <c r="E7">
-        <v>1.043581558996655</v>
+        <v>0.9582345582840011</v>
       </c>
       <c r="F7">
-        <v>1.062655245685326</v>
+        <v>0.9608362153468897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.050650186453369</v>
+        <v>0.9677954279974378</v>
       </c>
       <c r="K7">
-        <v>1.057907230077869</v>
+        <v>0.9698461729346896</v>
       </c>
       <c r="L7">
-        <v>1.046045815177342</v>
+        <v>0.9688614559221865</v>
       </c>
       <c r="M7">
-        <v>1.065072947741051</v>
+        <v>0.9714283126904688</v>
       </c>
       <c r="N7">
-        <v>1.020196733884585</v>
+        <v>0.9895596569287535</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.042755207016751</v>
+        <v>0.9261744677174885</v>
       </c>
       <c r="D8">
-        <v>1.052079878841492</v>
+        <v>0.9391079380478469</v>
       </c>
       <c r="E8">
-        <v>1.040595023663328</v>
+        <v>0.940368447952215</v>
       </c>
       <c r="F8">
-        <v>1.059047782971711</v>
+        <v>0.9395882069938918</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.047711691033278</v>
+        <v>0.9501647465333071</v>
       </c>
       <c r="K8">
-        <v>1.054767206369114</v>
+        <v>0.9511811898013625</v>
       </c>
       <c r="L8">
-        <v>1.043313762384146</v>
+        <v>0.952421707034151</v>
       </c>
       <c r="M8">
-        <v>1.061716412354042</v>
+        <v>0.9516538332042258</v>
       </c>
       <c r="N8">
-        <v>1.019141795176683</v>
+        <v>0.9829285757789529</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.036665337769894</v>
+        <v>0.8829664379762207</v>
       </c>
       <c r="D9">
-        <v>1.046030263772808</v>
+        <v>0.8973462529589131</v>
       </c>
       <c r="E9">
-        <v>1.035263993507623</v>
+        <v>0.9033265938330468</v>
       </c>
       <c r="F9">
-        <v>1.052618565370168</v>
+        <v>0.8955066343226025</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.042460483694759</v>
+        <v>0.913456050689745</v>
       </c>
       <c r="K9">
-        <v>1.049160464999228</v>
+        <v>0.9123577399318655</v>
       </c>
       <c r="L9">
-        <v>1.038428974103901</v>
+        <v>0.9182104792025004</v>
       </c>
       <c r="M9">
-        <v>1.055727867516467</v>
+        <v>0.9105578279156595</v>
       </c>
       <c r="N9">
-        <v>1.017245289056236</v>
+        <v>0.9691287061623779</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.032551179727446</v>
+        <v>0.8468730671047155</v>
       </c>
       <c r="D10">
-        <v>1.041944948051616</v>
+        <v>0.8625959859517593</v>
       </c>
       <c r="E10">
-        <v>1.031660577821855</v>
+        <v>0.8725697433858386</v>
       </c>
       <c r="F10">
-        <v>1.048279616504078</v>
+        <v>0.858817488594828</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.038906952928113</v>
+        <v>0.8828240654117872</v>
       </c>
       <c r="K10">
-        <v>1.045369439635251</v>
+        <v>0.8799851687862534</v>
       </c>
       <c r="L10">
-        <v>1.035121752625017</v>
+        <v>0.8896962919276751</v>
       </c>
       <c r="M10">
-        <v>1.051681907630734</v>
+        <v>0.8763083376357232</v>
       </c>
       <c r="N10">
-        <v>1.01595444007069</v>
+        <v>0.9576674155184837</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.03075592845285</v>
+        <v>0.828289078372466</v>
       </c>
       <c r="D11">
-        <v>1.040162685939146</v>
+        <v>0.8447561833071459</v>
       </c>
       <c r="E11">
-        <v>1.030087765637151</v>
+        <v>0.8568138456012842</v>
       </c>
       <c r="F11">
-        <v>1.046387344262863</v>
+        <v>0.8399729975456028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.037354932637966</v>
+        <v>0.867078939255969</v>
       </c>
       <c r="K11">
-        <v>1.043714426013899</v>
+        <v>0.8633494552468951</v>
       </c>
       <c r="L11">
-        <v>1.033676926104314</v>
+        <v>0.8750565968457031</v>
       </c>
       <c r="M11">
-        <v>1.049916362575612</v>
+        <v>0.8587091582441756</v>
       </c>
       <c r="N11">
-        <v>1.015388915221137</v>
+        <v>0.9518084374166965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.030086940443625</v>
+        <v>0.8207399668178771</v>
       </c>
       <c r="D12">
-        <v>1.039498599960275</v>
+        <v>0.8375203256774306</v>
       </c>
       <c r="E12">
-        <v>1.029501605844354</v>
+        <v>0.8504310434964242</v>
       </c>
       <c r="F12">
-        <v>1.045682363410549</v>
+        <v>0.8323270722770607</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.036776372736509</v>
+        <v>0.8606900444454653</v>
       </c>
       <c r="K12">
-        <v>1.043097582477152</v>
+        <v>0.8565995126522393</v>
       </c>
       <c r="L12">
-        <v>1.033138268930366</v>
+        <v>0.8691201108132471</v>
       </c>
       <c r="M12">
-        <v>1.049258437118932</v>
+        <v>0.8515679050968338</v>
       </c>
       <c r="N12">
-        <v>1.015177840786767</v>
+        <v>0.9494386404049776</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.030230539311422</v>
+        <v>0.8223934844427657</v>
       </c>
       <c r="D13">
-        <v>1.039641143794279</v>
+        <v>0.8391046725061354</v>
       </c>
       <c r="E13">
-        <v>1.029627428339762</v>
+        <v>0.851828196118035</v>
       </c>
       <c r="F13">
-        <v>1.045833680862917</v>
+        <v>0.8340013480037964</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.036900570629133</v>
+        <v>0.8620890523164536</v>
       </c>
       <c r="K13">
-        <v>1.043229993638125</v>
+        <v>0.8580775732838717</v>
       </c>
       <c r="L13">
-        <v>1.033253903570133</v>
+        <v>0.8704198504393652</v>
       </c>
       <c r="M13">
-        <v>1.049399661718107</v>
+        <v>0.8531316823927461</v>
       </c>
       <c r="N13">
-        <v>1.015223163232381</v>
+        <v>0.9499571672051627</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.030700674057047</v>
+        <v>0.8276799652396213</v>
       </c>
       <c r="D14">
-        <v>1.040107835157791</v>
+        <v>0.8441721055013995</v>
       </c>
       <c r="E14">
-        <v>1.030039353609647</v>
+        <v>0.8562984503546879</v>
       </c>
       <c r="F14">
-        <v>1.046329113781357</v>
+        <v>0.8393558790782956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.03730715134173</v>
+        <v>0.8665632778369022</v>
       </c>
       <c r="K14">
-        <v>1.043663480760191</v>
+        <v>0.8628046487920036</v>
       </c>
       <c r="L14">
-        <v>1.033632441392221</v>
+        <v>0.8745773637395855</v>
       </c>
       <c r="M14">
-        <v>1.049862022024539</v>
+        <v>0.8581327799961612</v>
       </c>
       <c r="N14">
-        <v>1.015371488560734</v>
+        <v>0.9516169949683432</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.030990052053566</v>
+        <v>0.830842960103809</v>
       </c>
       <c r="D15">
-        <v>1.040395101877317</v>
+        <v>0.8472055504688487</v>
       </c>
       <c r="E15">
-        <v>1.030292894265003</v>
+        <v>0.8589755160544272</v>
       </c>
       <c r="F15">
-        <v>1.046634084720211</v>
+        <v>0.8425608132442559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.037557382670715</v>
+        <v>0.8692412962353203</v>
       </c>
       <c r="K15">
-        <v>1.043930286279885</v>
+        <v>0.8656340386968508</v>
       </c>
       <c r="L15">
-        <v>1.033865406144137</v>
+        <v>0.8770663581352108</v>
       </c>
       <c r="M15">
-        <v>1.050146613745548</v>
+        <v>0.8611261152444005</v>
       </c>
       <c r="N15">
-        <v>1.015462741658496</v>
+        <v>0.9526115444975183</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.032670027291305</v>
+        <v>0.8480298741043987</v>
       </c>
       <c r="D16">
-        <v>1.042062944286951</v>
+        <v>0.8637076973059967</v>
       </c>
       <c r="E16">
-        <v>1.031764690868103</v>
+        <v>0.8735524357669439</v>
       </c>
       <c r="F16">
-        <v>1.048404909474333</v>
+        <v>0.8599915495197729</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.039009668907738</v>
+        <v>0.8838048824507948</v>
       </c>
       <c r="K16">
-        <v>1.045478987321479</v>
+        <v>0.8810215239616978</v>
       </c>
       <c r="L16">
-        <v>1.035217366315299</v>
+        <v>0.8906086653563285</v>
       </c>
       <c r="M16">
-        <v>1.0517987875594</v>
+        <v>0.8774046983569989</v>
       </c>
       <c r="N16">
-        <v>1.015991831371258</v>
+        <v>0.9580332069429041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.033720082961781</v>
+        <v>0.8579141914326402</v>
       </c>
       <c r="D17">
-        <v>1.04310552476503</v>
+        <v>0.8732123726289142</v>
       </c>
       <c r="E17">
-        <v>1.032684513438599</v>
+        <v>0.8819577477199823</v>
       </c>
       <c r="F17">
-        <v>1.049512035391182</v>
+        <v>0.8700282485859152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.039917035496743</v>
+        <v>0.8921884324471356</v>
       </c>
       <c r="K17">
-        <v>1.046446787790024</v>
+        <v>0.8898801994881708</v>
       </c>
       <c r="L17">
-        <v>1.036061949156614</v>
+        <v>0.8984090338804034</v>
       </c>
       <c r="M17">
-        <v>1.052831452570964</v>
+        <v>0.8867763770204552</v>
       </c>
       <c r="N17">
-        <v>1.016321936643824</v>
+        <v>0.9611633615419032</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.034331237235226</v>
+        <v>0.8634122227771034</v>
       </c>
       <c r="D18">
-        <v>1.043712367005878</v>
+        <v>0.8785035547734054</v>
       </c>
       <c r="E18">
-        <v>1.033219828073061</v>
+        <v>0.8866396437364568</v>
       </c>
       <c r="F18">
-        <v>1.050156508315902</v>
+        <v>0.8756148848764137</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.040445006863655</v>
+        <v>0.8968537786236608</v>
       </c>
       <c r="K18">
-        <v>1.047009994367402</v>
+        <v>0.8948103229653963</v>
       </c>
       <c r="L18">
-        <v>1.036553351603943</v>
+        <v>0.9027512067937251</v>
       </c>
       <c r="M18">
-        <v>1.053432480014797</v>
+        <v>0.8919921341988754</v>
       </c>
       <c r="N18">
-        <v>1.016513848429056</v>
+        <v>0.9629078423574484</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.034539402610254</v>
+        <v>0.8652457588597625</v>
       </c>
       <c r="D19">
-        <v>1.043919070187846</v>
+        <v>0.8802687834940645</v>
       </c>
       <c r="E19">
-        <v>1.033402154631216</v>
+        <v>0.8882020129927338</v>
       </c>
       <c r="F19">
-        <v>1.050376039737977</v>
+        <v>0.8774785820916445</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.040624816393088</v>
+        <v>0.8984099218226824</v>
       </c>
       <c r="K19">
-        <v>1.04720181578818</v>
+        <v>0.8964548527994323</v>
       </c>
       <c r="L19">
-        <v>1.036720700708766</v>
+        <v>0.9041997594955749</v>
       </c>
       <c r="M19">
-        <v>1.053637195203283</v>
+        <v>0.8937319747953356</v>
       </c>
       <c r="N19">
-        <v>1.016579178761367</v>
+        <v>0.96349010393705</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.033607559590002</v>
+        <v>0.8568824007536122</v>
       </c>
       <c r="D20">
-        <v>1.042993798418151</v>
+        <v>0.8722197414907095</v>
       </c>
       <c r="E20">
-        <v>1.032585950028396</v>
+        <v>0.8810796298686545</v>
       </c>
       <c r="F20">
-        <v>1.049393385779098</v>
+        <v>0.8689801363324046</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.039819816565332</v>
+        <v>0.891313066308467</v>
       </c>
       <c r="K20">
-        <v>1.046343086438366</v>
+        <v>0.8889551851075703</v>
       </c>
       <c r="L20">
-        <v>1.035971460935525</v>
+        <v>0.8975944107342751</v>
       </c>
       <c r="M20">
-        <v>1.052720793296082</v>
+        <v>0.8857977840900679</v>
       </c>
       <c r="N20">
-        <v>1.016286585128486</v>
+        <v>0.9608362409444949</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.030562291138301</v>
+        <v>0.8261434535691958</v>
       </c>
       <c r="D21">
-        <v>1.039970464078726</v>
+        <v>0.8426989324459947</v>
       </c>
       <c r="E21">
-        <v>1.029918106193661</v>
+        <v>0.8549986452693741</v>
       </c>
       <c r="F21">
-        <v>1.046183279955624</v>
+        <v>0.8377993245278816</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.037187481177587</v>
+        <v>0.8652626258062006</v>
       </c>
       <c r="K21">
-        <v>1.043535888114372</v>
+        <v>0.8614304880918237</v>
       </c>
       <c r="L21">
-        <v>1.033521026740186</v>
+        <v>0.8733686614479481</v>
       </c>
       <c r="M21">
-        <v>1.049725927686526</v>
+        <v>0.8566789775111029</v>
       </c>
       <c r="N21">
-        <v>1.015327838624566</v>
+        <v>0.9511342516081747</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.028635119882757</v>
+        <v>0.8028275135941068</v>
       </c>
       <c r="D22">
-        <v>1.038057531862724</v>
+        <v>0.8203778837866185</v>
       </c>
       <c r="E22">
-        <v>1.028229425464244</v>
+        <v>0.835329715990009</v>
       </c>
       <c r="F22">
-        <v>1.04415272847382</v>
+        <v>0.8142059764286179</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.035520412689214</v>
+        <v>0.8455497180635534</v>
       </c>
       <c r="K22">
-        <v>1.041758716308536</v>
+        <v>0.8406036371003309</v>
       </c>
       <c r="L22">
-        <v>1.031968827991334</v>
+        <v>0.8550617700432569</v>
       </c>
       <c r="M22">
-        <v>1.047830611641984</v>
+        <v>0.8346429140753265</v>
       </c>
       <c r="N22">
-        <v>1.0147191610485</v>
+        <v>0.9438422292641886</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.029657960769318</v>
+        <v>0.8156837329872529</v>
       </c>
       <c r="D23">
-        <v>1.039072781158901</v>
+        <v>0.8326775768163985</v>
       </c>
       <c r="E23">
-        <v>1.02912572142676</v>
+        <v>0.846161951241253</v>
       </c>
       <c r="F23">
-        <v>1.045230349335697</v>
+        <v>0.8272089262752121</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.036405319775499</v>
+        <v>0.8564134589403372</v>
       </c>
       <c r="K23">
-        <v>1.04270200770965</v>
+        <v>0.8520812851637579</v>
       </c>
       <c r="L23">
-        <v>1.032792791232976</v>
+        <v>0.8651476989181994</v>
       </c>
       <c r="M23">
-        <v>1.048836549195752</v>
+        <v>0.846787530348201</v>
       </c>
       <c r="N23">
-        <v>1.01504239798001</v>
+        <v>0.9478550016125508</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.033658408149573</v>
+        <v>0.8573494356765374</v>
       </c>
       <c r="D24">
-        <v>1.043044286687923</v>
+        <v>0.8726690376042336</v>
       </c>
       <c r="E24">
-        <v>1.032630490302435</v>
+        <v>0.8814770852533451</v>
       </c>
       <c r="F24">
-        <v>1.049447002428488</v>
+        <v>0.8694545471439956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.039863749567876</v>
+        <v>0.8917092900049755</v>
       </c>
       <c r="K24">
-        <v>1.046389948613271</v>
+        <v>0.8893738802689086</v>
       </c>
       <c r="L24">
-        <v>1.036012352460081</v>
+        <v>0.8979631356570114</v>
       </c>
       <c r="M24">
-        <v>1.052770799498561</v>
+        <v>0.8862407304053628</v>
       </c>
       <c r="N24">
-        <v>1.016302560911395</v>
+        <v>0.9609843000692221</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.03824897671035</v>
+        <v>0.8951456139110257</v>
       </c>
       <c r="D25">
-        <v>1.047603150431547</v>
+        <v>0.9091006664296248</v>
       </c>
       <c r="E25">
-        <v>1.036650642989912</v>
+        <v>0.9137457692448465</v>
       </c>
       <c r="F25">
-        <v>1.054289671377581</v>
+        <v>0.9079139287117355</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.043827077826951</v>
+        <v>0.923801952170707</v>
       </c>
       <c r="K25">
-        <v>1.050619041999529</v>
+        <v>0.9232955613197524</v>
       </c>
       <c r="L25">
-        <v>1.039700501341906</v>
+        <v>0.9278489672747013</v>
       </c>
       <c r="M25">
-        <v>1.057285204556185</v>
+        <v>0.922132448327752</v>
       </c>
       <c r="N25">
-        <v>1.017740160577004</v>
+        <v>0.9730135653537151</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,845 +412,1289 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.920450555053404</v>
+        <v>1.008524599524651</v>
       </c>
       <c r="D2">
-        <v>0.9335661079182753</v>
+        <v>1.024742313039378</v>
       </c>
       <c r="E2">
-        <v>0.9354497081613474</v>
+        <v>1.013626835941114</v>
       </c>
       <c r="F2">
-        <v>0.9337380927167452</v>
+        <v>1.030410144763755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.04564411749354</v>
+      </c>
       <c r="J2">
-        <v>0.9453020453964275</v>
+        <v>1.030453296817388</v>
       </c>
       <c r="K2">
-        <v>0.946035713463534</v>
+        <v>1.035867382671463</v>
       </c>
       <c r="L2">
-        <v>0.9478881267361419</v>
+        <v>1.024899536328572</v>
       </c>
       <c r="M2">
-        <v>0.9462048439707212</v>
+        <v>1.041461471235663</v>
       </c>
       <c r="N2">
-        <v>0.9810989348345064</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013558643322061</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041386363349787</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036431599305996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9369196253462244</v>
+        <v>1.012876648845994</v>
       </c>
       <c r="D3">
-        <v>0.9495188695899114</v>
+        <v>1.027988181624678</v>
       </c>
       <c r="E3">
-        <v>0.9496103810823608</v>
+        <v>1.017117575652866</v>
       </c>
       <c r="F3">
-        <v>0.9505793546024439</v>
+        <v>1.03360816820894</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.046415961409931</v>
+      </c>
       <c r="J3">
-        <v>0.9592912387671999</v>
+        <v>1.033022334119907</v>
       </c>
       <c r="K3">
-        <v>0.9608411855176018</v>
+        <v>1.038275047479924</v>
       </c>
       <c r="L3">
-        <v>0.9609313631245057</v>
+        <v>1.027536020366362</v>
       </c>
       <c r="M3">
-        <v>0.9618862327186353</v>
+        <v>1.043828353371861</v>
       </c>
       <c r="N3">
-        <v>0.9863620480397719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014467815849141</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043259587145218</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038131368518279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9468816032167374</v>
+        <v>1.015637605397995</v>
       </c>
       <c r="D4">
-        <v>0.9591797143153306</v>
+        <v>1.030054413470842</v>
       </c>
       <c r="E4">
-        <v>0.9581875554457594</v>
+        <v>1.019337661526818</v>
       </c>
       <c r="F4">
-        <v>0.9607803103989435</v>
+        <v>1.035646444228505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.046893494269967</v>
+      </c>
       <c r="J4">
-        <v>0.9677491119372342</v>
+        <v>1.034649585314838</v>
       </c>
       <c r="K4">
-        <v>0.9697971189084279</v>
+        <v>1.039803150752163</v>
       </c>
       <c r="L4">
-        <v>0.9688182654966571</v>
+        <v>1.029208168415384</v>
       </c>
       <c r="M4">
-        <v>0.9713763227572353</v>
+        <v>1.045332872382772</v>
       </c>
       <c r="N4">
-        <v>0.9895422491058086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015043183301492</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04445030755914</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039212771749206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9509244106731551</v>
+        <v>1.016791610686389</v>
       </c>
       <c r="D5">
-        <v>0.9631026882190834</v>
+        <v>1.030922341448487</v>
       </c>
       <c r="E5">
-        <v>0.9616705989748784</v>
+        <v>1.020267587399874</v>
       </c>
       <c r="F5">
-        <v>0.9649231955428282</v>
+        <v>1.036501469503779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.047091425552071</v>
+      </c>
       <c r="J5">
-        <v>0.971180271848292</v>
+        <v>1.035331425435433</v>
       </c>
       <c r="K5">
-        <v>0.9734314413350238</v>
+        <v>1.040445738785863</v>
       </c>
       <c r="L5">
-        <v>0.9720178895995828</v>
+        <v>1.029908776490032</v>
       </c>
       <c r="M5">
-        <v>0.9752284826548795</v>
+        <v>1.045964372275765</v>
       </c>
       <c r="N5">
-        <v>0.9908315755062049</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015284766584346</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044950094493437</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03967431134112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9515952304570601</v>
+        <v>1.016992022194622</v>
       </c>
       <c r="D6">
-        <v>0.9637537560491235</v>
+        <v>1.031076368490736</v>
       </c>
       <c r="E6">
-        <v>0.9622486546381567</v>
+        <v>1.020430002645761</v>
       </c>
       <c r="F6">
-        <v>0.9656107976045697</v>
+        <v>1.036651115875389</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.047127211841107</v>
+      </c>
       <c r="J6">
-        <v>0.97174952110643</v>
+        <v>1.035452647729174</v>
       </c>
       <c r="K6">
-        <v>0.9740344624544014</v>
+        <v>1.04056189094149</v>
       </c>
       <c r="L6">
-        <v>0.9725487277716085</v>
+        <v>1.030032675635259</v>
       </c>
       <c r="M6">
-        <v>0.9758677127034605</v>
+        <v>1.046076471243744</v>
       </c>
       <c r="N6">
-        <v>0.9910454254211858</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015328469132001</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04503881276188</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03976518836058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9469361694667773</v>
+        <v>1.015673103824516</v>
       </c>
       <c r="D7">
-        <v>0.9592326540654752</v>
+        <v>1.030089693084598</v>
       </c>
       <c r="E7">
-        <v>0.9582345582840011</v>
+        <v>1.019368557480525</v>
       </c>
       <c r="F7">
-        <v>0.9608362153468897</v>
+        <v>1.035675474920636</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.0469039040726</v>
+      </c>
       <c r="J7">
-        <v>0.9677954279974378</v>
+        <v>1.034678265698486</v>
       </c>
       <c r="K7">
-        <v>0.9698461729346896</v>
+        <v>1.039835150398761</v>
       </c>
       <c r="L7">
-        <v>0.9688614559221865</v>
+        <v>1.029235783841561</v>
       </c>
       <c r="M7">
-        <v>0.9714283126904688</v>
+        <v>1.045358718240989</v>
       </c>
       <c r="N7">
-        <v>0.9895596569287535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015055422612226</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044470762711416</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039255524091016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9261744677174885</v>
+        <v>1.010032850331179</v>
       </c>
       <c r="D8">
-        <v>0.9391079380478469</v>
+        <v>1.025876515214747</v>
       </c>
       <c r="E8">
-        <v>0.940368447952215</v>
+        <v>1.014838476168918</v>
       </c>
       <c r="F8">
-        <v>0.9395882069938918</v>
+        <v>1.031519911220965</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.0459195397989</v>
+      </c>
       <c r="J8">
-        <v>0.9501647465333071</v>
+        <v>1.031353970528001</v>
       </c>
       <c r="K8">
-        <v>0.9511811898013625</v>
+        <v>1.036717019437047</v>
       </c>
       <c r="L8">
-        <v>0.952421707034151</v>
+        <v>1.025821133254999</v>
       </c>
       <c r="M8">
-        <v>0.9516538332042258</v>
+        <v>1.042289203027607</v>
       </c>
       <c r="N8">
-        <v>0.9829285757789529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013880245082658</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042041456464531</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037055328447231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8829664379762207</v>
+        <v>0.999617980221889</v>
       </c>
       <c r="D9">
-        <v>0.8973462529589131</v>
+        <v>1.018140758092644</v>
       </c>
       <c r="E9">
-        <v>0.9033265938330468</v>
+        <v>1.006515747570773</v>
       </c>
       <c r="F9">
-        <v>0.8955066343226025</v>
+        <v>1.023919359487931</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.044000491523021</v>
+      </c>
       <c r="J9">
-        <v>0.913456050689745</v>
+        <v>1.025184235808067</v>
       </c>
       <c r="K9">
-        <v>0.9123577399318655</v>
+        <v>1.030946214221559</v>
       </c>
       <c r="L9">
-        <v>0.9182104792025004</v>
+        <v>1.019503988519147</v>
       </c>
       <c r="M9">
-        <v>0.9105578279156595</v>
+        <v>1.036635926049669</v>
       </c>
       <c r="N9">
-        <v>0.9691287061623779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011691779010088</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037567262435297</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.032971756929123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.8468730671047155</v>
+        <v>0.9924560530384717</v>
       </c>
       <c r="D10">
-        <v>0.8625959859517593</v>
+        <v>1.012899203599379</v>
       </c>
       <c r="E10">
-        <v>0.8725697433858386</v>
+        <v>1.000839756322202</v>
       </c>
       <c r="F10">
-        <v>0.858817488594828</v>
+        <v>1.01883166728154</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.042641766998833</v>
+      </c>
       <c r="J10">
-        <v>0.8828240654117872</v>
+        <v>1.020972211415501</v>
       </c>
       <c r="K10">
-        <v>0.8799851687862534</v>
+        <v>1.027039400240686</v>
       </c>
       <c r="L10">
-        <v>0.8896962919276751</v>
+        <v>1.015193865244406</v>
       </c>
       <c r="M10">
-        <v>0.8763083376357232</v>
+        <v>1.032869035609752</v>
       </c>
       <c r="N10">
-        <v>0.9576674155184837</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010206436423698</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.034637681987557</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.030226266685083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.828289078372466</v>
+        <v>0.9901417207864901</v>
       </c>
       <c r="D11">
-        <v>0.8447561833071459</v>
+        <v>1.011497221586667</v>
       </c>
       <c r="E11">
-        <v>0.8568138456012842</v>
+        <v>0.9991221334138916</v>
       </c>
       <c r="F11">
-        <v>0.8399729975456028</v>
+        <v>1.017869439074915</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.042355911330003</v>
+      </c>
       <c r="J11">
-        <v>0.867078939255969</v>
+        <v>1.01993044533595</v>
       </c>
       <c r="K11">
-        <v>0.8633494552468951</v>
+        <v>1.026205526101802</v>
       </c>
       <c r="L11">
-        <v>0.8750565968457031</v>
+        <v>1.014060624023311</v>
       </c>
       <c r="M11">
-        <v>0.8587091582441756</v>
+        <v>1.032462052701496</v>
       </c>
       <c r="N11">
-        <v>0.9518084374166965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00992839770477</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034753691118246</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029669750364072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.8207399668178771</v>
+        <v>0.9895965857625143</v>
       </c>
       <c r="D12">
-        <v>0.8375203256774306</v>
+        <v>1.011303230665693</v>
       </c>
       <c r="E12">
-        <v>0.8504310434964242</v>
+        <v>0.9987769062945127</v>
       </c>
       <c r="F12">
-        <v>0.8323270722770607</v>
+        <v>1.017973681782821</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.042372407951483</v>
+      </c>
       <c r="J12">
-        <v>0.8606900444454653</v>
+        <v>1.019847857359542</v>
       </c>
       <c r="K12">
-        <v>0.8565995126522393</v>
+        <v>1.026217035934628</v>
       </c>
       <c r="L12">
-        <v>0.8691201108132471</v>
+        <v>1.013927576423365</v>
       </c>
       <c r="M12">
-        <v>0.8515679050968338</v>
+        <v>1.032764449821732</v>
       </c>
       <c r="N12">
-        <v>0.9494386404049776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009971046289328</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.035320448240225</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02967788829665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.8223934844427657</v>
+        <v>0.9904038068924267</v>
       </c>
       <c r="D13">
-        <v>0.8391046725061354</v>
+        <v>1.01205683505576</v>
       </c>
       <c r="E13">
-        <v>0.851828196118035</v>
+        <v>0.9994869940357582</v>
       </c>
       <c r="F13">
-        <v>0.8340013480037964</v>
+        <v>1.018939974031763</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.042637236118794</v>
+      </c>
       <c r="J13">
-        <v>0.8620890523164536</v>
+        <v>1.020525792318026</v>
       </c>
       <c r="K13">
-        <v>0.8580775732838717</v>
+        <v>1.026913363083714</v>
       </c>
       <c r="L13">
-        <v>0.8704198504393652</v>
+        <v>1.014579962062402</v>
       </c>
       <c r="M13">
-        <v>0.8531316823927461</v>
+        <v>1.033670245493367</v>
       </c>
       <c r="N13">
-        <v>0.9499571672051627</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010275685846103</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036314096239065</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03016771135707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.8276799652396213</v>
+        <v>0.991580478818715</v>
       </c>
       <c r="D14">
-        <v>0.8441721055013995</v>
+        <v>1.013013248615455</v>
       </c>
       <c r="E14">
-        <v>0.8562984503546879</v>
+        <v>1.000461354727402</v>
       </c>
       <c r="F14">
-        <v>0.8393558790782956</v>
+        <v>1.020005134969989</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.042934578396254</v>
+      </c>
       <c r="J14">
-        <v>0.8665632778369022</v>
+        <v>1.021343924754423</v>
       </c>
       <c r="K14">
-        <v>0.8628046487920036</v>
+        <v>1.027710509826413</v>
       </c>
       <c r="L14">
-        <v>0.8745773637395855</v>
+        <v>1.015391533262129</v>
       </c>
       <c r="M14">
-        <v>0.8581327799961612</v>
+        <v>1.034575881635098</v>
       </c>
       <c r="N14">
-        <v>0.9516169949683432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010607394303607</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037203673497444</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.030732760969135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.830842960103809</v>
+        <v>0.9921705814990542</v>
       </c>
       <c r="D15">
-        <v>0.8472055504688487</v>
+        <v>1.013466303460126</v>
       </c>
       <c r="E15">
-        <v>0.8589755160544272</v>
+        <v>1.000937351391683</v>
       </c>
       <c r="F15">
-        <v>0.8425608132442559</v>
+        <v>1.020472696716407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.043064819842712</v>
+      </c>
       <c r="J15">
-        <v>0.8692412962353203</v>
+        <v>1.021719655354481</v>
       </c>
       <c r="K15">
-        <v>0.8656340386968508</v>
+        <v>1.028068113719424</v>
       </c>
       <c r="L15">
-        <v>0.8770663581352108</v>
+        <v>1.015769782831659</v>
       </c>
       <c r="M15">
-        <v>0.8611261152444005</v>
+        <v>1.0349487440907</v>
       </c>
       <c r="N15">
-        <v>0.9526115444975183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010749717656876</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037535985558954</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030991507213139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.8480298741043987</v>
+        <v>0.995047235561683</v>
       </c>
       <c r="D16">
-        <v>0.8637076973059967</v>
+        <v>1.015544857939732</v>
       </c>
       <c r="E16">
-        <v>0.8735524357669439</v>
+        <v>1.003196841064923</v>
       </c>
       <c r="F16">
-        <v>0.8599915495197729</v>
+        <v>1.022472973878264</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.04360296483054</v>
+      </c>
       <c r="J16">
-        <v>0.8838048824507948</v>
+        <v>1.023381325062406</v>
       </c>
       <c r="K16">
-        <v>0.8810215239616978</v>
+        <v>1.029603134328057</v>
       </c>
       <c r="L16">
-        <v>0.8906086653563285</v>
+        <v>1.017472105654499</v>
       </c>
       <c r="M16">
-        <v>0.8774046983569989</v>
+        <v>1.036412467833996</v>
       </c>
       <c r="N16">
-        <v>0.9580332069429041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011322751989877</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038654130368969</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032080011642417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8579141914326402</v>
+        <v>0.9966405695943172</v>
       </c>
       <c r="D17">
-        <v>0.8732123726289142</v>
+        <v>1.016641548959757</v>
       </c>
       <c r="E17">
-        <v>0.8819577477199823</v>
+        <v>1.004423885183531</v>
       </c>
       <c r="F17">
-        <v>0.8700282485859152</v>
+        <v>1.023446706269053</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.043857908932772</v>
+      </c>
       <c r="J17">
-        <v>0.8921884324471356</v>
+        <v>1.024228460712705</v>
       </c>
       <c r="K17">
-        <v>0.8898801994881708</v>
+        <v>1.030363950322029</v>
       </c>
       <c r="L17">
-        <v>0.8984090338804034</v>
+        <v>1.018354789751198</v>
       </c>
       <c r="M17">
-        <v>0.8867763770204552</v>
+        <v>1.037055750663936</v>
       </c>
       <c r="N17">
-        <v>0.9611633615419032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011588881300406</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039033365168883</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032620539944786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8634122227771034</v>
+        <v>0.9972542394626513</v>
       </c>
       <c r="D18">
-        <v>0.8785035547734054</v>
+        <v>1.016954069532279</v>
       </c>
       <c r="E18">
-        <v>0.8866396437364568</v>
+        <v>1.004850196319805</v>
       </c>
       <c r="F18">
-        <v>0.8756148848764137</v>
+        <v>1.023563564593181</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.043883736206321</v>
+      </c>
       <c r="J18">
-        <v>0.8968537786236608</v>
+        <v>1.024421381160224</v>
       </c>
       <c r="K18">
-        <v>0.8948103229653963</v>
+        <v>1.03048643302672</v>
       </c>
       <c r="L18">
-        <v>0.9027512067937251</v>
+        <v>1.018585730974216</v>
       </c>
       <c r="M18">
-        <v>0.8919921341988754</v>
+        <v>1.036987589134606</v>
       </c>
       <c r="N18">
-        <v>0.9629078423574484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011601651327988</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038741369671426</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.032695447212529</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8652457588597625</v>
+        <v>0.9970211496734703</v>
       </c>
       <c r="D19">
-        <v>0.8802687834940645</v>
+        <v>1.016596433513592</v>
       </c>
       <c r="E19">
-        <v>0.8882020129927338</v>
+        <v>1.004589051808264</v>
       </c>
       <c r="F19">
-        <v>0.8774785820916445</v>
+        <v>1.02292730110968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.043721857747074</v>
+      </c>
       <c r="J19">
-        <v>0.8984099218226824</v>
+        <v>1.024061880240242</v>
       </c>
       <c r="K19">
-        <v>0.8964548527994323</v>
+        <v>1.030071669681867</v>
       </c>
       <c r="L19">
-        <v>0.9041997594955749</v>
+        <v>1.018264918726116</v>
       </c>
       <c r="M19">
-        <v>0.8937319747953356</v>
+        <v>1.03629919014788</v>
       </c>
       <c r="N19">
-        <v>0.96349010393705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011407677821662</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037870800935656</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.032408622084458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8568824007536122</v>
+        <v>0.9943747975742105</v>
       </c>
       <c r="D20">
-        <v>0.8722197414907095</v>
+        <v>1.014324555547744</v>
       </c>
       <c r="E20">
-        <v>0.8810796298686545</v>
+        <v>1.002365696916683</v>
       </c>
       <c r="F20">
-        <v>0.8689801363324046</v>
+        <v>1.020202669308291</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.043022238641748</v>
+      </c>
       <c r="J20">
-        <v>0.891313066308467</v>
+        <v>1.022124296851025</v>
       </c>
       <c r="K20">
-        <v>0.8889551851075703</v>
+        <v>1.028120116160385</v>
       </c>
       <c r="L20">
-        <v>0.8975944107342751</v>
+        <v>1.016367075556549</v>
       </c>
       <c r="M20">
-        <v>0.8857977840900679</v>
+        <v>1.033899343674252</v>
       </c>
       <c r="N20">
-        <v>0.9608362409444949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01061973230056</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035442468127376</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.031032741130062</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.8261434535691958</v>
+        <v>0.9888171465734181</v>
       </c>
       <c r="D21">
-        <v>0.8426989324459947</v>
+        <v>1.010214721337926</v>
       </c>
       <c r="E21">
-        <v>0.8549986452693741</v>
+        <v>0.9979531445304526</v>
       </c>
       <c r="F21">
-        <v>0.8377993245278816</v>
+        <v>1.01614238232363</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.041915663908098</v>
+      </c>
       <c r="J21">
-        <v>0.8652626258062006</v>
+        <v>1.018789974857007</v>
       </c>
       <c r="K21">
-        <v>0.8614304880918237</v>
+        <v>1.025005122849507</v>
       </c>
       <c r="L21">
-        <v>0.8733686614479481</v>
+        <v>1.012973399255607</v>
       </c>
       <c r="M21">
-        <v>0.8566789775111029</v>
+        <v>1.030824252736263</v>
       </c>
       <c r="N21">
-        <v>0.9511342516081747</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009426567511164</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.032967678937185</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028833564089518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.8028275135941068</v>
+        <v>0.9852704907969861</v>
       </c>
       <c r="D22">
-        <v>0.8203778837866185</v>
+        <v>1.007609787693469</v>
       </c>
       <c r="E22">
-        <v>0.835329715990009</v>
+        <v>0.9951486324542504</v>
       </c>
       <c r="F22">
-        <v>0.8142059764286179</v>
+        <v>1.013603317801109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.041202655875219</v>
+      </c>
       <c r="J22">
-        <v>0.8455497180635534</v>
+        <v>1.016671072066032</v>
       </c>
       <c r="K22">
-        <v>0.8406036371003309</v>
+        <v>1.023031985670132</v>
       </c>
       <c r="L22">
-        <v>0.8550617700432569</v>
+        <v>1.010816812421555</v>
       </c>
       <c r="M22">
-        <v>0.8346429140753265</v>
+        <v>1.028910022761459</v>
       </c>
       <c r="N22">
-        <v>0.9438422292641886</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008670200987235</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.031452676566214</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027424839076198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.8156837329872529</v>
+        <v>0.9871369096402302</v>
       </c>
       <c r="D23">
-        <v>0.8326775768163985</v>
+        <v>1.008971551165373</v>
       </c>
       <c r="E23">
-        <v>0.846161951241253</v>
+        <v>0.9966208898713</v>
       </c>
       <c r="F23">
-        <v>0.8272089262752121</v>
+        <v>1.014935596250319</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.041574931780936</v>
+      </c>
       <c r="J23">
-        <v>0.8564134589403372</v>
+        <v>1.017778521353005</v>
       </c>
       <c r="K23">
-        <v>0.8520812851637579</v>
+        <v>1.024058606600249</v>
       </c>
       <c r="L23">
-        <v>0.8651476989181994</v>
+        <v>1.011945214823061</v>
       </c>
       <c r="M23">
-        <v>0.846787530348201</v>
+        <v>1.029910773166421</v>
       </c>
       <c r="N23">
-        <v>0.9478550016125508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009063169015876</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.032244713071746</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028140994861587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8573494356765374</v>
+        <v>0.9943524488475065</v>
       </c>
       <c r="D24">
-        <v>0.8726690376042336</v>
+        <v>1.014268883192532</v>
       </c>
       <c r="E24">
-        <v>0.8814770852533451</v>
+        <v>1.002334013121977</v>
       </c>
       <c r="F24">
-        <v>0.8694545471439956</v>
+        <v>1.020116415782063</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.042996676549129</v>
+      </c>
       <c r="J24">
-        <v>0.8917092900049755</v>
+        <v>1.022069643305634</v>
       </c>
       <c r="K24">
-        <v>0.8893738802689086</v>
+        <v>1.028049970661274</v>
       </c>
       <c r="L24">
-        <v>0.8979631356570114</v>
+        <v>1.01632026447845</v>
       </c>
       <c r="M24">
-        <v>0.8862407304053628</v>
+        <v>1.033799240007882</v>
       </c>
       <c r="N24">
-        <v>0.9609843000692221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010589025585119</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035322202900298</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030955560108339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8951456139110257</v>
+        <v>1.00240033633495</v>
       </c>
       <c r="D25">
-        <v>0.9091006664296248</v>
+        <v>1.020214078803119</v>
       </c>
       <c r="E25">
-        <v>0.9137457692448465</v>
+        <v>1.008737696074535</v>
       </c>
       <c r="F25">
-        <v>0.9079139287117355</v>
+        <v>1.025944913342253</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.044530846078789</v>
+      </c>
       <c r="J25">
-        <v>0.923801952170707</v>
+        <v>1.026847188736057</v>
       </c>
       <c r="K25">
-        <v>0.9232955613197524</v>
+        <v>1.032506496966236</v>
       </c>
       <c r="L25">
-        <v>0.9278489672747013</v>
+        <v>1.021201868108477</v>
       </c>
       <c r="M25">
-        <v>0.922132448327752</v>
+        <v>1.038153389224824</v>
       </c>
       <c r="N25">
-        <v>0.9730135653537151</v>
+        <v>1.012285774867982</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03876823669834</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034103702593774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_48/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008524599524651</v>
+        <v>1.008529289131158</v>
       </c>
       <c r="D2">
-        <v>1.024742313039378</v>
+        <v>1.024215968113804</v>
       </c>
       <c r="E2">
-        <v>1.013626835941114</v>
+        <v>1.013684414210486</v>
       </c>
       <c r="F2">
-        <v>1.030410144763755</v>
+        <v>1.030100153526548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04564411749354</v>
+        <v>1.045713207410392</v>
       </c>
       <c r="J2">
-        <v>1.030453296817388</v>
+        <v>1.030457849392888</v>
       </c>
       <c r="K2">
-        <v>1.035867382671463</v>
+        <v>1.035347937829981</v>
       </c>
       <c r="L2">
-        <v>1.024899536328572</v>
+        <v>1.024956339384294</v>
       </c>
       <c r="M2">
-        <v>1.041461471235663</v>
+        <v>1.041155486989529</v>
       </c>
       <c r="N2">
-        <v>1.013558643322061</v>
+        <v>1.014968860143205</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041386363349787</v>
+        <v>1.041144197591372</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036431599305996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036073103809989</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021179857166796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012876648845994</v>
+        <v>1.012567845719924</v>
       </c>
       <c r="D3">
-        <v>1.027988181624678</v>
+        <v>1.027088789917588</v>
       </c>
       <c r="E3">
-        <v>1.017117575652866</v>
+        <v>1.01689619629679</v>
       </c>
       <c r="F3">
-        <v>1.03360816820894</v>
+        <v>1.033021614162043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046415961409931</v>
+        <v>1.046376556290607</v>
       </c>
       <c r="J3">
-        <v>1.033022334119907</v>
+        <v>1.032721664895466</v>
       </c>
       <c r="K3">
-        <v>1.038275047479924</v>
+        <v>1.037386410991168</v>
       </c>
       <c r="L3">
-        <v>1.027536020366362</v>
+        <v>1.027317356957368</v>
       </c>
       <c r="M3">
-        <v>1.043828353371861</v>
+        <v>1.043248716746547</v>
       </c>
       <c r="N3">
-        <v>1.014467815849141</v>
+        <v>1.015599715405415</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043259587145218</v>
+        <v>1.042800845222695</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038131368518279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03751153857297</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021653867652025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015637605397995</v>
+        <v>1.015133147302215</v>
       </c>
       <c r="D4">
-        <v>1.030054413470842</v>
+        <v>1.028920455424237</v>
       </c>
       <c r="E4">
-        <v>1.019337661526818</v>
+        <v>1.018942000740018</v>
       </c>
       <c r="F4">
-        <v>1.035646444228505</v>
+        <v>1.034886385219792</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046893494269967</v>
+        <v>1.046786209875454</v>
       </c>
       <c r="J4">
-        <v>1.034649585314838</v>
+        <v>1.034157510476173</v>
       </c>
       <c r="K4">
-        <v>1.039803150752163</v>
+        <v>1.038681929537283</v>
       </c>
       <c r="L4">
-        <v>1.029208168415384</v>
+        <v>1.028817063885596</v>
       </c>
       <c r="M4">
-        <v>1.045332872382772</v>
+        <v>1.044581233692293</v>
       </c>
       <c r="N4">
-        <v>1.015043183301492</v>
+        <v>1.015999658272323</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04445030755914</v>
+        <v>1.043855438926228</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039212771749206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038428562662766</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021952502636223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016791610686389</v>
+        <v>1.016205823122232</v>
       </c>
       <c r="D5">
-        <v>1.030922341448487</v>
+        <v>1.029690629369669</v>
       </c>
       <c r="E5">
-        <v>1.020267587399874</v>
+        <v>1.019799416901314</v>
       </c>
       <c r="F5">
-        <v>1.036501469503779</v>
+        <v>1.035669166037679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047091425552071</v>
+        <v>1.046955855485445</v>
       </c>
       <c r="J5">
-        <v>1.035331425435433</v>
+        <v>1.034759585537231</v>
       </c>
       <c r="K5">
-        <v>1.040445738785863</v>
+        <v>1.039227490642951</v>
       </c>
       <c r="L5">
-        <v>1.029908776490032</v>
+        <v>1.029445851261316</v>
       </c>
       <c r="M5">
-        <v>1.045964372275765</v>
+        <v>1.045141042772964</v>
       </c>
       <c r="N5">
-        <v>1.015284766584346</v>
+        <v>1.016167762473133</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044950094493437</v>
+        <v>1.044298488095104</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03967431134112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038822206856832</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022078394061238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016992022194622</v>
+        <v>1.016391797456739</v>
       </c>
       <c r="D6">
-        <v>1.031076368490736</v>
+        <v>1.02982746850435</v>
       </c>
       <c r="E6">
-        <v>1.020430002645761</v>
+        <v>1.019948922133893</v>
       </c>
       <c r="F6">
-        <v>1.036651115875389</v>
+        <v>1.035806080292542</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047127211841107</v>
+        <v>1.046986575150512</v>
       </c>
       <c r="J6">
-        <v>1.035452647729174</v>
+        <v>1.034866640384902</v>
       </c>
       <c r="K6">
-        <v>1.04056189094149</v>
+        <v>1.039326579674478</v>
       </c>
       <c r="L6">
-        <v>1.030032675635259</v>
+        <v>1.029556959898128</v>
       </c>
       <c r="M6">
-        <v>1.046076471243744</v>
+        <v>1.045240504918459</v>
       </c>
       <c r="N6">
-        <v>1.015328469132001</v>
+        <v>1.016198194462175</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04503881276188</v>
+        <v>1.044377205298309</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03976518836058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038901889121565</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022102153929775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015673103824516</v>
+        <v>1.015174860956702</v>
       </c>
       <c r="D7">
-        <v>1.030089693084598</v>
+        <v>1.028959623105226</v>
       </c>
       <c r="E7">
-        <v>1.019368557480525</v>
+        <v>1.018978649512512</v>
       </c>
       <c r="F7">
-        <v>1.035675474920636</v>
+        <v>1.034918801700365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.0469039040726</v>
+        <v>1.046799088487405</v>
       </c>
       <c r="J7">
-        <v>1.034678265698486</v>
+        <v>1.034192247809071</v>
       </c>
       <c r="K7">
-        <v>1.039835150398761</v>
+        <v>1.038717768216759</v>
       </c>
       <c r="L7">
-        <v>1.029235783841561</v>
+        <v>1.028850364014749</v>
       </c>
       <c r="M7">
-        <v>1.045358718240989</v>
+        <v>1.044610424426742</v>
       </c>
       <c r="N7">
-        <v>1.015055422612226</v>
+        <v>1.016037152671916</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044470762711416</v>
+        <v>1.043878541328105</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039255524091016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038476031412047</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021964300911841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010032850331179</v>
+        <v>1.009956951475634</v>
       </c>
       <c r="D8">
-        <v>1.025876515214747</v>
+        <v>1.025243027794709</v>
       </c>
       <c r="E8">
-        <v>1.014838476168918</v>
+        <v>1.014825359869779</v>
       </c>
       <c r="F8">
-        <v>1.031519911220965</v>
+        <v>1.03113210548724</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.0459195397989</v>
+        <v>1.045962094990489</v>
       </c>
       <c r="J8">
-        <v>1.031353970528001</v>
+        <v>1.031280214197705</v>
       </c>
       <c r="K8">
-        <v>1.036717019437047</v>
+        <v>1.036091586936118</v>
       </c>
       <c r="L8">
-        <v>1.025821133254999</v>
+        <v>1.02580818817735</v>
       </c>
       <c r="M8">
-        <v>1.042289203027607</v>
+        <v>1.041906259801113</v>
       </c>
       <c r="N8">
-        <v>1.013880245082658</v>
+        <v>1.015280196656565</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042041456464531</v>
+        <v>1.041738383159295</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037055328447231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.036624154121646</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021359754456891</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.999617980221889</v>
+        <v>1.000318609411431</v>
       </c>
       <c r="D9">
-        <v>1.018140758092644</v>
+        <v>1.018417751266027</v>
       </c>
       <c r="E9">
-        <v>1.006515747570773</v>
+        <v>1.007192561925011</v>
       </c>
       <c r="F9">
-        <v>1.023919359487931</v>
+        <v>1.02420941817516</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044000491523021</v>
+        <v>1.044311065516189</v>
       </c>
       <c r="J9">
-        <v>1.025184235808067</v>
+        <v>1.025860121773531</v>
       </c>
       <c r="K9">
-        <v>1.030946214221559</v>
+        <v>1.031218917136159</v>
       </c>
       <c r="L9">
-        <v>1.019503988519147</v>
+        <v>1.020170012810581</v>
       </c>
       <c r="M9">
-        <v>1.036635926049669</v>
+        <v>1.036921556611777</v>
       </c>
       <c r="N9">
-        <v>1.011691779010088</v>
+        <v>1.013777225328439</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037567262435297</v>
+        <v>1.037793320763118</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.032971756929123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033175373385396</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020209960311382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9924560530384717</v>
+        <v>0.9937444836981897</v>
       </c>
       <c r="D10">
-        <v>1.012899203599379</v>
+        <v>1.013839401497028</v>
       </c>
       <c r="E10">
-        <v>1.000839756322202</v>
+        <v>1.002038008687705</v>
       </c>
       <c r="F10">
-        <v>1.01883166728154</v>
+        <v>1.019620008270237</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042641766998833</v>
+        <v>1.043155244667098</v>
       </c>
       <c r="J10">
-        <v>1.020972211415501</v>
+        <v>1.022208509755169</v>
       </c>
       <c r="K10">
-        <v>1.027039400240686</v>
+        <v>1.027963197642522</v>
       </c>
       <c r="L10">
-        <v>1.015193865244406</v>
+        <v>1.016370563496527</v>
       </c>
       <c r="M10">
-        <v>1.032869035609752</v>
+        <v>1.033643828584131</v>
       </c>
       <c r="N10">
-        <v>1.010206436423698</v>
+        <v>1.012884646332983</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.034637681987557</v>
+        <v>1.035250844896276</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030226266685083</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030891943078278</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019444334388695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9901417207864901</v>
+        <v>0.9915969780327405</v>
       </c>
       <c r="D11">
-        <v>1.011497221586667</v>
+        <v>1.01261638699935</v>
       </c>
       <c r="E11">
-        <v>0.9991221334138916</v>
+        <v>1.000463706794897</v>
       </c>
       <c r="F11">
-        <v>1.017869439074915</v>
+        <v>1.018792091979295</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042355911330003</v>
+        <v>1.042922151828131</v>
       </c>
       <c r="J11">
-        <v>1.01993044533595</v>
+        <v>1.021323559547401</v>
       </c>
       <c r="K11">
-        <v>1.026205526101802</v>
+        <v>1.027304235282542</v>
       </c>
       <c r="L11">
-        <v>1.014060624023311</v>
+        <v>1.015376883580029</v>
       </c>
       <c r="M11">
-        <v>1.032462052701496</v>
+        <v>1.033368110213852</v>
       </c>
       <c r="N11">
-        <v>1.00992839770477</v>
+        <v>1.012931102476799</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034753691118246</v>
+        <v>1.035470371921819</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029669750364072</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030462294081706</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019381022961358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9895965857625143</v>
+        <v>0.9910525197033085</v>
       </c>
       <c r="D12">
-        <v>1.011303230665693</v>
+        <v>1.012425598371306</v>
       </c>
       <c r="E12">
-        <v>0.9987769062945127</v>
+        <v>1.000113946341146</v>
       </c>
       <c r="F12">
-        <v>1.017973681782821</v>
+        <v>1.018897180677945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042372407951483</v>
+        <v>1.042933191389852</v>
       </c>
       <c r="J12">
-        <v>1.019847857359542</v>
+        <v>1.021240440248153</v>
       </c>
       <c r="K12">
-        <v>1.026217035934628</v>
+        <v>1.02731855349066</v>
       </c>
       <c r="L12">
-        <v>1.013927576423365</v>
+        <v>1.015238963644487</v>
       </c>
       <c r="M12">
-        <v>1.032764449821732</v>
+        <v>1.033671079923422</v>
       </c>
       <c r="N12">
-        <v>1.009971046289328</v>
+        <v>1.013057598772116</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.035320448240225</v>
+        <v>1.036037337603523</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02967788829665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030472417418158</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019452340226716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9904038068924267</v>
+        <v>0.9917147744670021</v>
       </c>
       <c r="D13">
-        <v>1.01205683505576</v>
+        <v>1.01303284403738</v>
       </c>
       <c r="E13">
-        <v>0.9994869940357582</v>
+        <v>1.00068926060277</v>
       </c>
       <c r="F13">
-        <v>1.018939974031763</v>
+        <v>1.019750114492463</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042637236118794</v>
+        <v>1.04314065298451</v>
       </c>
       <c r="J13">
-        <v>1.020525792318026</v>
+        <v>1.021780046134138</v>
       </c>
       <c r="K13">
-        <v>1.026913363083714</v>
+        <v>1.0278713331883</v>
       </c>
       <c r="L13">
-        <v>1.014579962062402</v>
+        <v>1.01575927779939</v>
       </c>
       <c r="M13">
-        <v>1.033670245493367</v>
+        <v>1.034465671480416</v>
       </c>
       <c r="N13">
-        <v>1.010275685846103</v>
+        <v>1.013224714159575</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036314096239065</v>
+        <v>1.036942895652105</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03016771135707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030860496599224</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019639271828728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.991580478818715</v>
+        <v>0.9927259922338707</v>
       </c>
       <c r="D14">
-        <v>1.013013248615455</v>
+        <v>1.013820897575475</v>
       </c>
       <c r="E14">
-        <v>1.000461354727402</v>
+        <v>1.001512339283086</v>
       </c>
       <c r="F14">
-        <v>1.020005134969989</v>
+        <v>1.02068573735919</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042934578396254</v>
+        <v>1.043375349017509</v>
       </c>
       <c r="J14">
-        <v>1.021343924754423</v>
+        <v>1.022440632442213</v>
       </c>
       <c r="K14">
-        <v>1.027710509826413</v>
+        <v>1.028503428783715</v>
       </c>
       <c r="L14">
-        <v>1.015391533262129</v>
+        <v>1.016422722847123</v>
       </c>
       <c r="M14">
-        <v>1.034575881635098</v>
+        <v>1.035244289111997</v>
       </c>
       <c r="N14">
-        <v>1.010607394303607</v>
+        <v>1.013361855712668</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037203673497444</v>
+        <v>1.037731990890491</v>
       </c>
       <c r="Q14">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R14">
-        <v>1.030732760969135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031308975800119</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019823211832677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9921705814990542</v>
+        <v>0.9932442376480829</v>
       </c>
       <c r="D15">
-        <v>1.013466303460126</v>
+        <v>1.014200027585745</v>
       </c>
       <c r="E15">
-        <v>1.000937351391683</v>
+        <v>1.001923410173388</v>
       </c>
       <c r="F15">
-        <v>1.020472696716407</v>
+        <v>1.021096693143935</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.043064819842712</v>
+        <v>1.04347927083521</v>
       </c>
       <c r="J15">
-        <v>1.021719655354481</v>
+        <v>1.022747982015543</v>
       </c>
       <c r="K15">
-        <v>1.028068113719424</v>
+        <v>1.028788561779919</v>
       </c>
       <c r="L15">
-        <v>1.015769782831659</v>
+        <v>1.016737418282347</v>
       </c>
       <c r="M15">
-        <v>1.0349487440907</v>
+        <v>1.035561648559045</v>
       </c>
       <c r="N15">
-        <v>1.010749717656876</v>
+        <v>1.013410579223188</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037535985558954</v>
+        <v>1.038020419962359</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030991507213139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.031517045769926</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019897877503785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.995047235561683</v>
+        <v>0.9958341983391543</v>
       </c>
       <c r="D16">
-        <v>1.015544857939732</v>
+        <v>1.015974968224302</v>
       </c>
       <c r="E16">
-        <v>1.003196841064923</v>
+        <v>1.003928298939731</v>
       </c>
       <c r="F16">
-        <v>1.022472973878264</v>
+        <v>1.022866520013362</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04360296483054</v>
+        <v>1.043917617215024</v>
       </c>
       <c r="J16">
-        <v>1.023381325062406</v>
+        <v>1.024136759154074</v>
       </c>
       <c r="K16">
-        <v>1.029603134328057</v>
+        <v>1.030025809371373</v>
       </c>
       <c r="L16">
-        <v>1.017472105654499</v>
+        <v>1.018190516756646</v>
       </c>
       <c r="M16">
-        <v>1.036412467833996</v>
+        <v>1.036799328976334</v>
       </c>
       <c r="N16">
-        <v>1.011322751989877</v>
+        <v>1.013576542782521</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038654130368969</v>
+        <v>1.03895991090572</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032080011642417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032395302549953</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020174750734942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9966405695943172</v>
+        <v>0.9973052037962523</v>
       </c>
       <c r="D17">
-        <v>1.016641548959757</v>
+        <v>1.016935154286979</v>
       </c>
       <c r="E17">
-        <v>1.004423885183531</v>
+        <v>1.005048983466655</v>
       </c>
       <c r="F17">
-        <v>1.023446706269053</v>
+        <v>1.023738024193954</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043857908932772</v>
+        <v>1.044132723688687</v>
       </c>
       <c r="J17">
-        <v>1.024228460712705</v>
+        <v>1.02486733438478</v>
       </c>
       <c r="K17">
-        <v>1.030363950322029</v>
+        <v>1.030652624542047</v>
       </c>
       <c r="L17">
-        <v>1.018354789751198</v>
+        <v>1.018969061093296</v>
       </c>
       <c r="M17">
-        <v>1.037055750663936</v>
+        <v>1.037342259241713</v>
       </c>
       <c r="N17">
-        <v>1.011588881300406</v>
+        <v>1.013662483864285</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039033365168883</v>
+        <v>1.03925984825144</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032620539944786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032841330024078</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020293135763553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9972542394626513</v>
+        <v>0.9979155640218839</v>
       </c>
       <c r="D18">
-        <v>1.016954069532279</v>
+        <v>1.017235507374897</v>
       </c>
       <c r="E18">
-        <v>1.004850196319805</v>
+        <v>1.005476509242112</v>
       </c>
       <c r="F18">
-        <v>1.023563564593181</v>
+        <v>1.023847553391454</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043883736206321</v>
+        <v>1.044162257172464</v>
       </c>
       <c r="J18">
-        <v>1.024421381160224</v>
+        <v>1.02505755078366</v>
       </c>
       <c r="K18">
-        <v>1.03048643302672</v>
+        <v>1.030763220776954</v>
       </c>
       <c r="L18">
-        <v>1.018585730974216</v>
+        <v>1.019201375878334</v>
       </c>
       <c r="M18">
-        <v>1.036987589134606</v>
+        <v>1.037266963211291</v>
       </c>
       <c r="N18">
-        <v>1.011601651327988</v>
+        <v>1.013637990465657</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038741369671426</v>
+        <v>1.038962259155951</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032695447212529</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032906702062736</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020269569384036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9970211496734703</v>
+        <v>0.9977708642608472</v>
       </c>
       <c r="D19">
-        <v>1.016596433513592</v>
+        <v>1.016965137741579</v>
       </c>
       <c r="E19">
-        <v>1.004589051808264</v>
+        <v>1.005299018887833</v>
       </c>
       <c r="F19">
-        <v>1.02292730110968</v>
+        <v>1.0232793237061</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043721857747074</v>
+        <v>1.044037035974811</v>
       </c>
       <c r="J19">
-        <v>1.024061880240242</v>
+        <v>1.024783229532878</v>
       </c>
       <c r="K19">
-        <v>1.030071669681867</v>
+        <v>1.030434309679417</v>
       </c>
       <c r="L19">
-        <v>1.018264918726116</v>
+        <v>1.018962850957281</v>
       </c>
       <c r="M19">
-        <v>1.03629919014788</v>
+        <v>1.036645514395746</v>
       </c>
       <c r="N19">
-        <v>1.011407677821662</v>
+        <v>1.01350695943439</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037870800935656</v>
+        <v>1.038144714999327</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.032408622084458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032681203455339</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020130419684875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9943747975742105</v>
+        <v>0.9954723501600962</v>
       </c>
       <c r="D20">
-        <v>1.014324555547744</v>
+        <v>1.015061133086106</v>
       </c>
       <c r="E20">
-        <v>1.002365696916683</v>
+        <v>1.003393068928312</v>
       </c>
       <c r="F20">
-        <v>1.020202669308291</v>
+        <v>1.020836095466256</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.043022238641748</v>
+        <v>1.0434678450576</v>
       </c>
       <c r="J20">
-        <v>1.022124296851025</v>
+        <v>1.023178927754788</v>
       </c>
       <c r="K20">
-        <v>1.028120116160385</v>
+        <v>1.028844221422281</v>
       </c>
       <c r="L20">
-        <v>1.016367075556549</v>
+        <v>1.017376516551007</v>
       </c>
       <c r="M20">
-        <v>1.033899343674252</v>
+        <v>1.034522201402828</v>
       </c>
       <c r="N20">
-        <v>1.01061973230056</v>
+        <v>1.013057561778788</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035442468127376</v>
+        <v>1.03593539696015</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.031032741130062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.031561293678152</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019656817726434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9888171465734181</v>
+        <v>0.990534725919064</v>
       </c>
       <c r="D21">
-        <v>1.010214721337926</v>
+        <v>1.011597038214188</v>
       </c>
       <c r="E21">
-        <v>0.9979531445304526</v>
+        <v>0.9995380062238959</v>
       </c>
       <c r="F21">
-        <v>1.01614238232363</v>
+        <v>1.017269862743457</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041915663908098</v>
+        <v>1.042584984435627</v>
       </c>
       <c r="J21">
-        <v>1.018789974857007</v>
+        <v>1.020433587025009</v>
       </c>
       <c r="K21">
-        <v>1.025005122849507</v>
+        <v>1.026361982372525</v>
       </c>
       <c r="L21">
-        <v>1.012973399255607</v>
+        <v>1.014528136508384</v>
       </c>
       <c r="M21">
-        <v>1.030824252736263</v>
+        <v>1.031931276024645</v>
       </c>
       <c r="N21">
-        <v>1.009426567511164</v>
+        <v>1.01271512544215</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.032967678937185</v>
+        <v>1.033843822382235</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028833564089518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029809844296874</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019068792440259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9852704907969861</v>
+        <v>0.9873853841047678</v>
       </c>
       <c r="D22">
-        <v>1.007609787693469</v>
+        <v>1.009404112726179</v>
       </c>
       <c r="E22">
-        <v>0.9951486324542504</v>
+        <v>0.997090752423853</v>
       </c>
       <c r="F22">
-        <v>1.013603317801109</v>
+        <v>1.015046479816224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041202655875219</v>
+        <v>1.042015727602896</v>
       </c>
       <c r="J22">
-        <v>1.016671072066032</v>
+        <v>1.018689406677267</v>
       </c>
       <c r="K22">
-        <v>1.023031985670132</v>
+        <v>1.024791546282221</v>
       </c>
       <c r="L22">
-        <v>1.010816812421555</v>
+        <v>1.012720063224964</v>
       </c>
       <c r="M22">
-        <v>1.028910022761459</v>
+        <v>1.030325642104818</v>
       </c>
       <c r="N22">
-        <v>1.008670200987235</v>
+        <v>1.012492925228311</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.031452676566214</v>
+        <v>1.032573057761118</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027424839076198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028684573415061</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018697499887807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9871369096402302</v>
+        <v>0.9890263052976207</v>
       </c>
       <c r="D23">
-        <v>1.008971551165373</v>
+        <v>1.010536027464026</v>
       </c>
       <c r="E23">
-        <v>0.9966208898713</v>
+        <v>0.9983596146377671</v>
       </c>
       <c r="F23">
-        <v>1.014935596250319</v>
+        <v>1.016202000296012</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041574931780936</v>
+        <v>1.042305585988268</v>
       </c>
       <c r="J23">
-        <v>1.017778521353005</v>
+        <v>1.019584262472971</v>
       </c>
       <c r="K23">
-        <v>1.024058606600249</v>
+        <v>1.025593568239065</v>
       </c>
       <c r="L23">
-        <v>1.011945214823061</v>
+        <v>1.013650071300374</v>
       </c>
       <c r="M23">
-        <v>1.029910773166421</v>
+        <v>1.031153641387371</v>
       </c>
       <c r="N23">
-        <v>1.009063169015876</v>
+        <v>1.012559769498469</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.032244713071746</v>
+        <v>1.033228370683282</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028140994861587</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029240986105547</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018882415976206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9943524488475065</v>
+        <v>0.9954616548309042</v>
       </c>
       <c r="D24">
-        <v>1.014268883192532</v>
+        <v>1.015016761510116</v>
       </c>
       <c r="E24">
-        <v>1.002334013121977</v>
+        <v>1.003372530508047</v>
       </c>
       <c r="F24">
-        <v>1.020116415782063</v>
+        <v>1.020758783402117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042996676549129</v>
+        <v>1.043447227905034</v>
       </c>
       <c r="J24">
-        <v>1.022069643305634</v>
+        <v>1.023135530857656</v>
       </c>
       <c r="K24">
-        <v>1.028049970661274</v>
+        <v>1.028785199998787</v>
       </c>
       <c r="L24">
-        <v>1.01632026447845</v>
+        <v>1.017340678455541</v>
       </c>
       <c r="M24">
-        <v>1.033799240007882</v>
+        <v>1.034430901540983</v>
       </c>
       <c r="N24">
-        <v>1.010589025585119</v>
+        <v>1.013033912463647</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035322202900298</v>
+        <v>1.035822124100798</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030955560108339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.031489321722196</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019631130603948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00240033633495</v>
+        <v>1.00287592436427</v>
       </c>
       <c r="D25">
-        <v>1.020214078803119</v>
+        <v>1.020234680349581</v>
       </c>
       <c r="E25">
-        <v>1.008737696074535</v>
+        <v>1.009214135939662</v>
       </c>
       <c r="F25">
-        <v>1.025944913342253</v>
+        <v>1.026042789481157</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044530846078789</v>
+        <v>1.044763082374904</v>
       </c>
       <c r="J25">
-        <v>1.026847188736057</v>
+        <v>1.027306888303322</v>
       </c>
       <c r="K25">
-        <v>1.032506496966236</v>
+        <v>1.032526794606684</v>
       </c>
       <c r="L25">
-        <v>1.021201868108477</v>
+        <v>1.021671078617342</v>
       </c>
       <c r="M25">
-        <v>1.038153389224824</v>
+        <v>1.038249842053431</v>
       </c>
       <c r="N25">
-        <v>1.012285774867982</v>
+        <v>1.014150080855053</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03876823669834</v>
+        <v>1.038844572825122</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034103702593774</v>
+        <v>1.034131638752343</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020523863735056</v>
       </c>
     </row>
   </sheetData>
